--- a/certy_uat.xlsx
+++ b/certy_uat.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uzivatel\Documents\script-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4AC44-F789-4752-BE01-7D176463CCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-75" yWindow="-16605" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId4"/>
+    <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="201">
   <si>
     <t>Server</t>
   </si>
@@ -668,35 +677,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="dd.mm.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1322,541 +1320,566 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="176">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff002c5a"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff9c0006"/>
-      <rgbColor rgb="ffffc7ce"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF002C5A"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motiv Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
     <a:clrScheme name="Motiv Office 2013–2022">
       <a:dk1>
@@ -2058,7 +2081,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2076,7 +2099,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2105,7 +2128,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2130,7 +2153,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2155,7 +2178,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2180,7 +2203,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2205,7 +2228,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2230,7 +2253,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2255,7 +2278,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2280,7 +2303,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2305,7 +2328,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2318,9 +2341,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2337,7 +2366,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2355,7 +2384,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2380,7 +2409,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2405,7 +2434,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2430,7 +2459,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2455,7 +2484,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2480,7 +2509,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2505,7 +2534,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2530,7 +2559,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2555,7 +2584,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2580,7 +2609,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2593,9 +2622,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2609,7 +2644,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2627,7 +2662,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2656,7 +2691,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2681,7 +2716,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2706,7 +2741,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2731,7 +2766,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2756,7 +2791,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2781,7 +2816,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2806,7 +2841,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2831,7 +2866,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2856,7 +2891,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2869,43 +2904,52 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I341"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="D273" sqref="D273"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="10" width="8.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
@@ -2914,17 +2958,17 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" ht="14.05" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>45940</v>
       </c>
       <c r="E2" s="4"/>
@@ -2933,13 +2977,13 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" t="s" s="12">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="147"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>45743</v>
       </c>
       <c r="E3" s="4"/>
@@ -2948,15 +2992,15 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" ht="14.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s" s="14">
+    <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="147"/>
+      <c r="B4" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="16">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4"/>
@@ -2965,13 +3009,13 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="17"/>
-      <c r="C5" t="s" s="18">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="147"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="13">
         <v>46967</v>
       </c>
       <c r="E5" s="4"/>
@@ -2980,13 +3024,13 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="17"/>
-      <c r="C6" t="s" s="18">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="147"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="13">
         <v>50424</v>
       </c>
       <c r="E6" s="4"/>
@@ -2995,13 +3039,13 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" t="s" s="18">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="147"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="13">
         <v>48162</v>
       </c>
       <c r="E7" s="4"/>
@@ -3010,13 +3054,13 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="17"/>
-      <c r="C8" t="s" s="18">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="147"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="13">
         <v>48162</v>
       </c>
       <c r="E8" s="4"/>
@@ -3025,13 +3069,13 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="17"/>
-      <c r="C9" t="s" s="18">
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="147"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="13">
         <v>50420</v>
       </c>
       <c r="E9" s="4"/>
@@ -3040,28 +3084,28 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="17"/>
-      <c r="C10" t="s" s="18">
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="147"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="13">
         <v>48162</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="17"/>
-      <c r="C11" t="s" s="18">
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="147"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="13">
         <v>50420</v>
       </c>
       <c r="E11" s="4"/>
@@ -3070,13 +3114,13 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="17"/>
-      <c r="C12" t="s" s="18">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="13">
         <v>47824</v>
       </c>
       <c r="E12" s="4"/>
@@ -3085,13 +3129,13 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="17"/>
-      <c r="C13" t="s" s="18">
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="147"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="13">
         <v>47195</v>
       </c>
       <c r="E13" s="4"/>
@@ -3100,13 +3144,13 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="17"/>
-      <c r="C14" t="s" s="18">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="147"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="13">
         <v>52289</v>
       </c>
       <c r="E14" s="4"/>
@@ -3115,13 +3159,13 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="17"/>
-      <c r="C15" t="s" s="18">
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="147"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="13">
         <v>52289</v>
       </c>
       <c r="E15" s="4"/>
@@ -3130,13 +3174,13 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" ht="18.45" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="17"/>
-      <c r="C16" t="s" s="18">
+    <row r="16" spans="1:9" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="147"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="13">
         <v>53068</v>
       </c>
       <c r="E16" s="4"/>
@@ -3145,13 +3189,13 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="17"/>
-      <c r="C17" t="s" s="18">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="147"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="13">
         <v>49483</v>
       </c>
       <c r="E17" s="4"/>
@@ -3160,13 +3204,13 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="17"/>
-      <c r="C18" t="s" s="18">
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="147"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="13">
         <v>49756</v>
       </c>
       <c r="E18" s="4"/>
@@ -3175,13 +3219,13 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="17"/>
-      <c r="C19" t="s" s="18">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="147"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="13">
         <v>49379</v>
       </c>
       <c r="E19" s="4"/>
@@ -3190,13 +3234,13 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="17"/>
-      <c r="C20" t="s" s="18">
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="147"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="13">
         <v>49403</v>
       </c>
       <c r="E20" s="4"/>
@@ -3205,13 +3249,13 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="17"/>
-      <c r="C21" t="s" s="18">
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="147"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="13">
         <v>48288</v>
       </c>
       <c r="E21" s="4"/>
@@ -3220,13 +3264,13 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="17"/>
-      <c r="C22" t="s" s="18">
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="147"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="13">
         <v>50424</v>
       </c>
       <c r="E22" s="4"/>
@@ -3235,13 +3279,13 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="17"/>
-      <c r="C23" t="s" s="18">
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="147"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="13">
         <v>49873</v>
       </c>
       <c r="E23" s="4"/>
@@ -3250,13 +3294,13 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="17"/>
-      <c r="C24" t="s" s="18">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="147"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D24" t="s" s="21">
+      <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="4"/>
@@ -3265,13 +3309,13 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="22"/>
-      <c r="C25" t="s" s="23">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="147"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="17">
         <v>46843</v>
       </c>
       <c r="E25" s="4"/>
@@ -3280,13 +3324,13 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" ht="14.05" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="25"/>
-      <c r="C26" t="s" s="26">
+    <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="147"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="19">
         <v>48292</v>
       </c>
       <c r="E26" s="4"/>
@@ -3295,13 +3339,13 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="28"/>
-      <c r="C27" t="s" s="29">
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="147"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="21">
         <v>45751</v>
       </c>
       <c r="E27" s="4"/>
@@ -3310,13 +3354,13 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="31"/>
-      <c r="C28" t="s" s="32">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="147"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="23">
         <v>46693</v>
       </c>
       <c r="E28" s="4"/>
@@ -3325,13 +3369,13 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="34"/>
-      <c r="C29" t="s" s="35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="147"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="25">
         <v>51136</v>
       </c>
       <c r="E29" s="4"/>
@@ -3340,15 +3384,15 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" ht="14.05" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" t="s" s="37">
+    <row r="30" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="147"/>
+      <c r="B30" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s" s="38">
+      <c r="C30" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D30" t="s" s="39">
+      <c r="D30" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="4"/>
@@ -3357,13 +3401,13 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="34"/>
-      <c r="C31" t="s" s="40">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="147"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="25">
         <v>46843</v>
       </c>
       <c r="E31" s="4"/>
@@ -3372,15 +3416,15 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" ht="14.05" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" t="s" s="7">
+    <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="147"/>
+      <c r="B32" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s" s="41">
+      <c r="C32" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="30">
         <v>45790</v>
       </c>
       <c r="E32" s="4"/>
@@ -3389,13 +3433,13 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="17"/>
-      <c r="C33" t="s" s="43">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="147"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="23">
         <v>46967</v>
       </c>
       <c r="E33" s="4"/>
@@ -3404,13 +3448,13 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="17"/>
-      <c r="C34" t="s" s="44">
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="147"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="13">
         <v>50424</v>
       </c>
       <c r="E34" s="4"/>
@@ -3419,13 +3463,13 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="17"/>
-      <c r="C35" t="s" s="44">
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="147"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="13">
         <v>48162</v>
       </c>
       <c r="E35" s="4"/>
@@ -3434,13 +3478,13 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="17"/>
-      <c r="C36" t="s" s="44">
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="147"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="13">
         <v>48162</v>
       </c>
       <c r="E36" s="4"/>
@@ -3449,13 +3493,13 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="17"/>
-      <c r="C37" t="s" s="44">
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="147"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="13">
         <v>50420</v>
       </c>
       <c r="E37" s="4"/>
@@ -3464,13 +3508,13 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="17"/>
-      <c r="C38" t="s" s="44">
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="147"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="13">
         <v>48162</v>
       </c>
       <c r="E38" s="4"/>
@@ -3479,13 +3523,13 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="17"/>
-      <c r="C39" t="s" s="44">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="147"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="13">
         <v>50420</v>
       </c>
       <c r="E39" s="4"/>
@@ -3494,13 +3538,13 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="17"/>
-      <c r="C40" t="s" s="44">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="147"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="13">
         <v>47824</v>
       </c>
       <c r="E40" s="4"/>
@@ -3509,13 +3553,13 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="17"/>
-      <c r="C41" t="s" s="44">
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="147"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="13">
         <v>47195</v>
       </c>
       <c r="E41" s="4"/>
@@ -3524,13 +3568,13 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" ht="13.2" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="17"/>
-      <c r="C42" t="s" s="44">
+    <row r="42" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="147"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="13">
         <v>53068</v>
       </c>
       <c r="E42" s="4"/>
@@ -3539,13 +3583,13 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="17"/>
-      <c r="C43" t="s" s="44">
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="147"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="13">
         <v>50424</v>
       </c>
       <c r="E43" s="4"/>
@@ -3554,13 +3598,13 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="22"/>
-      <c r="C44" t="s" s="45">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="147"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="17">
         <v>49873</v>
       </c>
       <c r="E44" s="4"/>
@@ -3569,15 +3613,15 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" ht="14.05" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" t="s" s="37">
+    <row r="45" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="147"/>
+      <c r="B45" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C45" t="s" s="46">
+      <c r="C45" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="35">
         <v>50918</v>
       </c>
       <c r="E45" s="4"/>
@@ -3586,13 +3630,13 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="34"/>
-      <c r="C46" t="s" s="40">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="147"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="25">
         <v>52289</v>
       </c>
       <c r="E46" s="4"/>
@@ -3601,15 +3645,15 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" ht="14.05" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" t="s" s="37">
+    <row r="47" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="147"/>
+      <c r="B47" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="C47" t="s" s="46">
+      <c r="C47" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="35">
         <v>52179</v>
       </c>
       <c r="E47" s="4"/>
@@ -3618,13 +3662,13 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="48"/>
-      <c r="B48" s="34"/>
-      <c r="C48" t="s" s="40">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="148"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="25">
         <v>49477</v>
       </c>
       <c r="E48" s="4"/>
@@ -3633,50 +3677,50 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" ht="14.05" customHeight="1">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
+    <row r="49" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="53"/>
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="56"/>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="57">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="4"/>
@@ -3685,17 +3729,17 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" ht="14.05" customHeight="1">
-      <c r="A53" t="s" s="58">
+    <row r="53" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="B53" t="s" s="59">
+      <c r="B53" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C53" t="s" s="60">
+      <c r="C53" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="7">
         <v>45947</v>
       </c>
       <c r="E53" s="4"/>
@@ -3704,13 +3748,13 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="61"/>
-      <c r="B54" s="62"/>
-      <c r="C54" t="s" s="63">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="133"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D54" t="s" s="64">
+      <c r="D54" s="49" t="s">
         <v>46</v>
       </c>
       <c r="E54" s="4"/>
@@ -3719,15 +3763,15 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" ht="14.05" customHeight="1">
-      <c r="A55" s="61"/>
-      <c r="B55" t="s" s="65">
+    <row r="55" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="133"/>
+      <c r="B55" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C55" t="s" s="66">
+      <c r="C55" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="42">
+      <c r="D55" s="30">
         <v>45940</v>
       </c>
       <c r="E55" s="4"/>
@@ -3736,15 +3780,15 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="67"/>
-      <c r="B56" t="s" s="68">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="135"/>
+      <c r="B56" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C56" t="s" s="69">
+      <c r="C56" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D56" t="s" s="70">
+      <c r="D56" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E56" s="4"/>
@@ -3753,15 +3797,15 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" ht="14.05" customHeight="1">
-      <c r="A57" s="71"/>
-      <c r="B57" t="s" s="7">
+    <row r="57" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="136"/>
+      <c r="B57" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="C57" t="s" s="60">
+      <c r="C57" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="7">
         <v>45993</v>
       </c>
       <c r="E57" s="4"/>
@@ -3770,13 +3814,13 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="72"/>
-      <c r="C58" t="s" s="73">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="133"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="74">
+      <c r="D58" s="56">
         <v>45926</v>
       </c>
       <c r="E58" s="4"/>
@@ -3785,13 +3829,13 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="61"/>
-      <c r="B59" s="11"/>
-      <c r="C59" t="s" s="75">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="133"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="9">
         <v>45682</v>
       </c>
       <c r="E59" s="4"/>
@@ -3800,15 +3844,15 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" ht="14.05" customHeight="1">
-      <c r="A60" s="61"/>
-      <c r="B60" t="s" s="7">
+    <row r="60" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="133"/>
+      <c r="B60" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="C60" t="s" s="41">
+      <c r="C60" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="42">
+      <c r="D60" s="30">
         <v>45790</v>
       </c>
       <c r="E60" s="4"/>
@@ -3817,13 +3861,13 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" ht="13.55" customHeight="1">
-      <c r="A61" s="61"/>
-      <c r="B61" s="17"/>
-      <c r="C61" t="s" s="43">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="133"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D61" t="s" s="76">
+      <c r="D61" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="4"/>
@@ -3832,13 +3876,13 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" ht="13.55" customHeight="1">
-      <c r="A62" s="61"/>
-      <c r="B62" s="17"/>
-      <c r="C62" t="s" s="44">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="133"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="13">
         <v>46967</v>
       </c>
       <c r="E62" s="4"/>
@@ -3847,13 +3891,13 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" ht="13.55" customHeight="1">
-      <c r="A63" s="61"/>
-      <c r="B63" s="17"/>
-      <c r="C63" t="s" s="77">
+    <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="133"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="13">
         <v>51387</v>
       </c>
       <c r="E63" s="4"/>
@@ -3862,13 +3906,13 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" ht="13.55" customHeight="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="17"/>
-      <c r="C64" t="s" s="44">
+    <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="133"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="13">
         <v>50424</v>
       </c>
       <c r="E64" s="4"/>
@@ -3877,13 +3921,13 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" ht="13.55" customHeight="1">
-      <c r="A65" s="61"/>
-      <c r="B65" s="17"/>
-      <c r="C65" t="s" s="44">
+    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="133"/>
+      <c r="B65" s="155"/>
+      <c r="C65" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="13">
         <v>48162</v>
       </c>
       <c r="E65" s="4"/>
@@ -3892,13 +3936,13 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" ht="13.55" customHeight="1">
-      <c r="A66" s="61"/>
-      <c r="B66" s="17"/>
-      <c r="C66" t="s" s="44">
+    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="133"/>
+      <c r="B66" s="155"/>
+      <c r="C66" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="13">
         <v>48162</v>
       </c>
       <c r="E66" s="4"/>
@@ -3907,13 +3951,13 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" ht="13.55" customHeight="1">
-      <c r="A67" s="61"/>
-      <c r="B67" s="17"/>
-      <c r="C67" t="s" s="44">
+    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="133"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="13">
         <v>50420</v>
       </c>
       <c r="E67" s="4"/>
@@ -3922,13 +3966,13 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" ht="13.55" customHeight="1">
-      <c r="A68" s="61"/>
-      <c r="B68" s="17"/>
-      <c r="C68" t="s" s="44">
+    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="133"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="13">
         <v>50719</v>
       </c>
       <c r="E68" s="4"/>
@@ -3937,13 +3981,13 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" ht="13.55" customHeight="1">
-      <c r="A69" s="61"/>
-      <c r="B69" s="17"/>
-      <c r="C69" t="s" s="44">
+    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="133"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="13">
         <v>50420</v>
       </c>
       <c r="E69" s="4"/>
@@ -3952,13 +3996,13 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" ht="13.55" customHeight="1">
-      <c r="A70" s="61"/>
-      <c r="B70" s="17"/>
-      <c r="C70" t="s" s="44">
+    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="133"/>
+      <c r="B70" s="155"/>
+      <c r="C70" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="13">
         <v>46467</v>
       </c>
       <c r="E70" s="4"/>
@@ -3967,13 +4011,13 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" ht="13.55" customHeight="1">
-      <c r="A71" s="61"/>
-      <c r="B71" s="17"/>
-      <c r="C71" t="s" s="44">
+    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="133"/>
+      <c r="B71" s="155"/>
+      <c r="C71" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="13">
         <v>47824</v>
       </c>
       <c r="E71" s="4"/>
@@ -3982,13 +4026,13 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" ht="13.55" customHeight="1">
-      <c r="A72" s="61"/>
-      <c r="B72" s="17"/>
-      <c r="C72" t="s" s="44">
+    <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="133"/>
+      <c r="B72" s="155"/>
+      <c r="C72" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="13">
         <v>47195</v>
       </c>
       <c r="E72" s="4"/>
@@ -3997,13 +4041,13 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" ht="13.55" customHeight="1">
-      <c r="A73" s="61"/>
-      <c r="B73" s="17"/>
-      <c r="C73" t="s" s="44">
+    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="133"/>
+      <c r="B73" s="155"/>
+      <c r="C73" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="78">
+      <c r="D73" s="60">
         <v>52439</v>
       </c>
       <c r="E73" s="4"/>
@@ -4012,13 +4056,13 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" s="61"/>
-      <c r="B74" s="17"/>
-      <c r="C74" t="s" s="44">
+    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="133"/>
+      <c r="B74" s="155"/>
+      <c r="C74" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="13">
         <v>52439</v>
       </c>
       <c r="E74" s="4"/>
@@ -4027,13 +4071,13 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" ht="13.2" customHeight="1">
-      <c r="A75" s="61"/>
-      <c r="B75" s="17"/>
-      <c r="C75" t="s" s="44">
+    <row r="75" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="133"/>
+      <c r="B75" s="155"/>
+      <c r="C75" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="13">
         <v>53068</v>
       </c>
       <c r="E75" s="4"/>
@@ -4042,13 +4086,13 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" ht="13.55" customHeight="1">
-      <c r="A76" s="61"/>
-      <c r="B76" s="17"/>
-      <c r="C76" t="s" s="44">
+    <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="133"/>
+      <c r="B76" s="155"/>
+      <c r="C76" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="13">
         <v>49483</v>
       </c>
       <c r="E76" s="4"/>
@@ -4057,13 +4101,13 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" ht="13.55" customHeight="1">
-      <c r="A77" s="61"/>
-      <c r="B77" s="17"/>
-      <c r="C77" t="s" s="79">
+    <row r="77" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="133"/>
+      <c r="B77" s="155"/>
+      <c r="C77" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="80">
+      <c r="D77" s="62">
         <v>49756</v>
       </c>
       <c r="E77" s="4"/>
@@ -4072,13 +4116,13 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" ht="13.55" customHeight="1">
-      <c r="A78" s="61"/>
-      <c r="B78" s="72"/>
-      <c r="C78" t="s" s="81">
+    <row r="78" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="133"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D78" s="30">
+      <c r="D78" s="21">
         <v>45676</v>
       </c>
       <c r="E78" s="4"/>
@@ -4087,13 +4131,13 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" ht="13.55" customHeight="1">
-      <c r="A79" s="61"/>
-      <c r="B79" s="17"/>
-      <c r="C79" t="s" s="43">
+    <row r="79" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="133"/>
+      <c r="B79" s="155"/>
+      <c r="C79" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D79" s="23">
         <v>46442</v>
       </c>
       <c r="E79" s="4"/>
@@ -4102,13 +4146,13 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" ht="13.55" customHeight="1">
-      <c r="A80" s="61"/>
-      <c r="B80" s="17"/>
-      <c r="C80" t="s" s="44">
+    <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="133"/>
+      <c r="B80" s="155"/>
+      <c r="C80" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="13">
         <v>49379</v>
       </c>
       <c r="E80" s="4"/>
@@ -4117,13 +4161,13 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" ht="13.55" customHeight="1">
-      <c r="A81" s="61"/>
-      <c r="B81" s="17"/>
-      <c r="C81" t="s" s="44">
+    <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="133"/>
+      <c r="B81" s="155"/>
+      <c r="C81" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="13">
         <v>48476</v>
       </c>
       <c r="E81" s="4"/>
@@ -4132,13 +4176,13 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" ht="13.55" customHeight="1">
-      <c r="A82" s="61"/>
-      <c r="B82" s="17"/>
-      <c r="C82" t="s" s="44">
+    <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="133"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="13">
         <v>56886</v>
       </c>
       <c r="E82" s="4"/>
@@ -4147,13 +4191,13 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" ht="13.55" customHeight="1">
-      <c r="A83" s="61"/>
-      <c r="B83" s="17"/>
-      <c r="C83" t="s" s="44">
+    <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="133"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="13">
         <v>46292</v>
       </c>
       <c r="E83" s="4"/>
@@ -4162,13 +4206,13 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" ht="13.55" customHeight="1">
-      <c r="A84" s="61"/>
-      <c r="B84" s="17"/>
-      <c r="C84" t="s" s="44">
+    <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="133"/>
+      <c r="B84" s="155"/>
+      <c r="C84" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D84" t="s" s="21">
+      <c r="D84" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="4"/>
@@ -4177,13 +4221,13 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" ht="13.55" customHeight="1">
-      <c r="A85" s="61"/>
-      <c r="B85" s="17"/>
-      <c r="C85" t="s" s="44">
+    <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="133"/>
+      <c r="B85" s="155"/>
+      <c r="C85" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="13">
         <v>50269</v>
       </c>
       <c r="E85" s="4"/>
@@ -4192,13 +4236,13 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" ht="13.55" customHeight="1">
-      <c r="A86" s="61"/>
-      <c r="B86" s="17"/>
-      <c r="C86" t="s" s="44">
+    <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="133"/>
+      <c r="B86" s="155"/>
+      <c r="C86" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="13">
         <v>48288</v>
       </c>
       <c r="E86" s="4"/>
@@ -4207,13 +4251,13 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" ht="13.55" customHeight="1">
-      <c r="A87" s="61"/>
-      <c r="B87" s="17"/>
-      <c r="C87" t="s" s="44">
+    <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="133"/>
+      <c r="B87" s="155"/>
+      <c r="C87" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="13">
         <v>50424</v>
       </c>
       <c r="E87" s="4"/>
@@ -4222,13 +4266,13 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" ht="13.55" customHeight="1">
-      <c r="A88" s="61"/>
-      <c r="B88" s="17"/>
-      <c r="C88" t="s" s="44">
+    <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="133"/>
+      <c r="B88" s="155"/>
+      <c r="C88" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="78">
+      <c r="D88" s="60">
         <v>50603</v>
       </c>
       <c r="E88" s="4"/>
@@ -4237,13 +4281,13 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" ht="13.55" customHeight="1">
-      <c r="A89" s="61"/>
-      <c r="B89" s="17"/>
-      <c r="C89" t="s" s="44">
+    <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="133"/>
+      <c r="B89" s="155"/>
+      <c r="C89" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="13">
         <v>49873</v>
       </c>
       <c r="E89" s="4"/>
@@ -4252,13 +4296,13 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="61"/>
-      <c r="B90" s="22"/>
-      <c r="C90" t="s" s="82">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="133"/>
+      <c r="B90" s="149"/>
+      <c r="C90" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="36">
+      <c r="D90" s="25">
         <v>46112</v>
       </c>
       <c r="E90" s="4"/>
@@ -4267,15 +4311,15 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" ht="14.05" customHeight="1">
-      <c r="A91" s="61"/>
-      <c r="B91" t="s" s="14">
+    <row r="91" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="133"/>
+      <c r="B91" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="C91" t="s" s="83">
+      <c r="C91" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D91" t="s" s="16">
+      <c r="D91" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="4"/>
@@ -4284,13 +4328,13 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" ht="13.55" customHeight="1">
-      <c r="A92" s="61"/>
-      <c r="B92" s="17"/>
-      <c r="C92" t="s" s="79">
+    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="133"/>
+      <c r="B92" s="155"/>
+      <c r="C92" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="80">
+      <c r="D92" s="62">
         <v>48292</v>
       </c>
       <c r="E92" s="4"/>
@@ -4299,13 +4343,13 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" ht="13.55" customHeight="1">
-      <c r="A93" s="61"/>
-      <c r="B93" s="72"/>
-      <c r="C93" t="s" s="81">
+    <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="133"/>
+      <c r="B93" s="156"/>
+      <c r="C93" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="30">
+      <c r="D93" s="21">
         <v>45751</v>
       </c>
       <c r="E93" s="4"/>
@@ -4314,13 +4358,13 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" ht="13.55" customHeight="1">
-      <c r="A94" s="61"/>
-      <c r="B94" s="17"/>
-      <c r="C94" t="s" s="43">
+    <row r="94" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="133"/>
+      <c r="B94" s="155"/>
+      <c r="C94" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="33">
+      <c r="D94" s="23">
         <v>49379</v>
       </c>
       <c r="E94" s="4"/>
@@ -4329,13 +4373,13 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" ht="13.55" customHeight="1">
-      <c r="A95" s="61"/>
-      <c r="B95" s="17"/>
-      <c r="C95" t="s" s="44">
+    <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="133"/>
+      <c r="B95" s="155"/>
+      <c r="C95" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="13">
         <v>46693</v>
       </c>
       <c r="E95" s="4"/>
@@ -4344,13 +4388,13 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" ht="13.55" customHeight="1">
-      <c r="A96" s="61"/>
-      <c r="B96" s="17"/>
-      <c r="C96" t="s" s="44">
+    <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="133"/>
+      <c r="B96" s="155"/>
+      <c r="C96" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="13">
         <v>51136</v>
       </c>
       <c r="E96" s="4"/>
@@ -4359,13 +4403,13 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="61"/>
-      <c r="B97" s="22"/>
-      <c r="C97" t="s" s="82">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="133"/>
+      <c r="B97" s="149"/>
+      <c r="C97" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97" s="17">
         <v>46697</v>
       </c>
       <c r="E97" s="4"/>
@@ -4374,15 +4418,15 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" ht="14.05" customHeight="1">
-      <c r="A98" s="61"/>
-      <c r="B98" t="s" s="14">
+    <row r="98" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="133"/>
+      <c r="B98" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="C98" t="s" s="84">
+      <c r="C98" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D98" t="s" s="16">
+      <c r="D98" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E98" s="4"/>
@@ -4391,13 +4435,13 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="61"/>
-      <c r="B99" s="22"/>
-      <c r="C99" t="s" s="82">
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="133"/>
+      <c r="B99" s="149"/>
+      <c r="C99" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="24">
+      <c r="D99" s="17">
         <v>46112</v>
       </c>
       <c r="E99" s="4"/>
@@ -4406,15 +4450,15 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" ht="14.05" customHeight="1">
-      <c r="A100" s="61"/>
-      <c r="B100" t="s" s="14">
+    <row r="100" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="133"/>
+      <c r="B100" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="C100" t="s" s="84">
+      <c r="C100" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="D100" s="47">
+      <c r="D100" s="35">
         <v>46493</v>
       </c>
       <c r="E100" s="4"/>
@@ -4423,13 +4467,13 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="61"/>
-      <c r="B101" s="22"/>
-      <c r="C101" t="s" s="82">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="133"/>
+      <c r="B101" s="149"/>
+      <c r="C101" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="17">
         <v>46840</v>
       </c>
       <c r="E101" s="4"/>
@@ -4438,15 +4482,15 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" ht="14.05" customHeight="1">
-      <c r="A102" s="61"/>
-      <c r="B102" t="s" s="14">
+    <row r="102" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="133"/>
+      <c r="B102" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="C102" t="s" s="83">
+      <c r="C102" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D102" t="s" s="16">
+      <c r="D102" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="4"/>
@@ -4455,13 +4499,13 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" ht="13.55" customHeight="1">
-      <c r="A103" s="61"/>
-      <c r="B103" s="17"/>
-      <c r="C103" t="s" s="44">
+    <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="133"/>
+      <c r="B103" s="155"/>
+      <c r="C103" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="13">
         <v>46967</v>
       </c>
       <c r="E103" s="4"/>
@@ -4470,13 +4514,13 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" ht="13.55" customHeight="1">
-      <c r="A104" s="61"/>
-      <c r="B104" s="17"/>
-      <c r="C104" t="s" s="44">
+    <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="133"/>
+      <c r="B104" s="155"/>
+      <c r="C104" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="13">
         <v>50424</v>
       </c>
       <c r="E104" s="4"/>
@@ -4485,13 +4529,13 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" ht="13.55" customHeight="1">
-      <c r="A105" s="61"/>
-      <c r="B105" s="17"/>
-      <c r="C105" t="s" s="44">
+    <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="133"/>
+      <c r="B105" s="155"/>
+      <c r="C105" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D105" s="13">
         <v>48162</v>
       </c>
       <c r="E105" s="4"/>
@@ -4500,13 +4544,13 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" ht="13.55" customHeight="1">
-      <c r="A106" s="61"/>
-      <c r="B106" s="17"/>
-      <c r="C106" t="s" s="44">
+    <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="133"/>
+      <c r="B106" s="155"/>
+      <c r="C106" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="13">
         <v>48162</v>
       </c>
       <c r="E106" s="4"/>
@@ -4515,13 +4559,13 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" ht="13.55" customHeight="1">
-      <c r="A107" s="61"/>
-      <c r="B107" s="17"/>
-      <c r="C107" t="s" s="44">
+    <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="133"/>
+      <c r="B107" s="155"/>
+      <c r="C107" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="13">
         <v>50420</v>
       </c>
       <c r="E107" s="4"/>
@@ -4530,13 +4574,13 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" ht="13.55" customHeight="1">
-      <c r="A108" s="61"/>
-      <c r="B108" s="17"/>
-      <c r="C108" t="s" s="44">
+    <row r="108" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="133"/>
+      <c r="B108" s="155"/>
+      <c r="C108" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D108" s="13">
         <v>48162</v>
       </c>
       <c r="E108" s="4"/>
@@ -4545,13 +4589,13 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" ht="13.55" customHeight="1">
-      <c r="A109" s="61"/>
-      <c r="B109" s="17"/>
-      <c r="C109" t="s" s="44">
+    <row r="109" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="133"/>
+      <c r="B109" s="155"/>
+      <c r="C109" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="13">
         <v>50420</v>
       </c>
       <c r="E109" s="4"/>
@@ -4560,13 +4604,13 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" ht="13.55" customHeight="1">
-      <c r="A110" s="61"/>
-      <c r="B110" s="17"/>
-      <c r="C110" t="s" s="44">
+    <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="133"/>
+      <c r="B110" s="155"/>
+      <c r="C110" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="13">
         <v>47824</v>
       </c>
       <c r="E110" s="4"/>
@@ -4575,13 +4619,13 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" ht="13.55" customHeight="1">
-      <c r="A111" s="61"/>
-      <c r="B111" s="17"/>
-      <c r="C111" t="s" s="18">
+    <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="133"/>
+      <c r="B111" s="155"/>
+      <c r="C111" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="78">
+      <c r="D111" s="60">
         <v>47195</v>
       </c>
       <c r="E111" s="4"/>
@@ -4590,13 +4634,13 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" ht="15.45" customHeight="1">
-      <c r="A112" s="61"/>
-      <c r="B112" s="17"/>
-      <c r="C112" t="s" s="18">
+    <row r="112" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="133"/>
+      <c r="B112" s="155"/>
+      <c r="C112" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D112" s="13">
         <v>53068</v>
       </c>
       <c r="E112" s="4"/>
@@ -4605,13 +4649,13 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" ht="13.55" customHeight="1">
-      <c r="A113" s="61"/>
-      <c r="B113" s="17"/>
-      <c r="C113" t="s" s="18">
+    <row r="113" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="133"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="13">
         <v>50424</v>
       </c>
       <c r="E113" s="4"/>
@@ -4620,13 +4664,13 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" ht="15" customHeight="1">
-      <c r="A114" s="61"/>
-      <c r="B114" s="22"/>
-      <c r="C114" t="s" s="40">
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="133"/>
+      <c r="B114" s="149"/>
+      <c r="C114" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D114" s="36">
+      <c r="D114" s="25">
         <v>49873</v>
       </c>
       <c r="E114" s="4"/>
@@ -4635,15 +4679,15 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" ht="14.05" customHeight="1">
-      <c r="A115" s="61"/>
-      <c r="B115" t="s" s="14">
+    <row r="115" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="133"/>
+      <c r="B115" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C115" t="s" s="84">
+      <c r="C115" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="47">
+      <c r="D115" s="35">
         <v>50918</v>
       </c>
       <c r="E115" s="4"/>
@@ -4652,13 +4696,13 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" ht="15" customHeight="1">
-      <c r="A116" s="61"/>
-      <c r="B116" s="22"/>
-      <c r="C116" t="s" s="82">
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="133"/>
+      <c r="B116" s="149"/>
+      <c r="C116" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="36">
+      <c r="D116" s="25">
         <v>52289</v>
       </c>
       <c r="E116" s="4"/>
@@ -4667,15 +4711,15 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" ht="14.05" customHeight="1">
-      <c r="A117" s="61"/>
-      <c r="B117" t="s" s="14">
+    <row r="117" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="133"/>
+      <c r="B117" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="C117" t="s" s="83">
+      <c r="C117" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D117" s="47">
+      <c r="D117" s="35">
         <v>52179</v>
       </c>
       <c r="E117" s="4"/>
@@ -4684,13 +4728,13 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" ht="15" customHeight="1">
-      <c r="A118" s="61"/>
-      <c r="B118" s="22"/>
-      <c r="C118" t="s" s="82">
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="133"/>
+      <c r="B118" s="149"/>
+      <c r="C118" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D118" s="24">
+      <c r="D118" s="17">
         <v>49477</v>
       </c>
       <c r="E118" s="4"/>
@@ -4699,15 +4743,15 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" ht="15" customHeight="1">
-      <c r="A119" s="61"/>
-      <c r="B119" t="s" s="85">
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="133"/>
+      <c r="B119" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C119" t="s" s="86">
+      <c r="C119" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="87">
+      <c r="D119" s="69">
         <v>45947</v>
       </c>
       <c r="E119" s="4"/>
@@ -4716,15 +4760,15 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" ht="15" customHeight="1">
-      <c r="A120" s="61"/>
-      <c r="B120" t="s" s="88">
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="133"/>
+      <c r="B120" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C120" t="s" s="89">
+      <c r="C120" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D120" t="s" s="90">
+      <c r="D120" s="72" t="s">
         <v>85</v>
       </c>
       <c r="E120" s="4"/>
@@ -4733,15 +4777,15 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" ht="14.05" customHeight="1">
-      <c r="A121" s="61"/>
-      <c r="B121" t="s" s="14">
+    <row r="121" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="133"/>
+      <c r="B121" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="C121" t="s" s="84">
+      <c r="C121" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="D121" s="47">
+      <c r="D121" s="35">
         <v>81327</v>
       </c>
       <c r="E121" s="4"/>
@@ -4750,13 +4794,13 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" ht="15" customHeight="1">
-      <c r="A122" s="61"/>
-      <c r="B122" s="22"/>
-      <c r="C122" t="s" s="82">
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="133"/>
+      <c r="B122" s="149"/>
+      <c r="C122" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="D122" s="24">
+      <c r="D122" s="17">
         <v>81327</v>
       </c>
       <c r="E122" s="4"/>
@@ -4765,15 +4809,15 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="67"/>
-      <c r="B123" t="s" s="88">
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="135"/>
+      <c r="B123" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C123" t="s" s="91">
+      <c r="C123" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D123" s="92">
+      <c r="D123" s="74">
         <v>51573</v>
       </c>
       <c r="E123" s="4"/>
@@ -4782,50 +4826,50 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" ht="14.05" customHeight="1">
-      <c r="A124" s="51"/>
-      <c r="B124" s="93"/>
-      <c r="C124" s="94"/>
-      <c r="D124" s="95"/>
+    <row r="124" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="38"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="77"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" ht="13.55" customHeight="1">
+    <row r="125" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="53"/>
+      <c r="D125" s="40"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="54"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="55"/>
-      <c r="D126" s="56"/>
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="41"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="43"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" ht="15" customHeight="1">
-      <c r="A127" t="s" s="3">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B127" t="s" s="3">
+      <c r="B127" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C127" t="s" s="3">
+      <c r="C127" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D127" t="s" s="3">
+      <c r="D127" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E127" s="4"/>
@@ -4834,17 +4878,17 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" ht="14.05" customHeight="1">
-      <c r="A128" t="s" s="96">
+    <row r="128" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="B128" t="s" s="14">
+      <c r="B128" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="C128" t="s" s="15">
+      <c r="C128" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="47">
+      <c r="D128" s="35">
         <v>48162</v>
       </c>
       <c r="E128" s="4"/>
@@ -4853,13 +4897,13 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" ht="13.55" customHeight="1">
-      <c r="A129" s="97"/>
-      <c r="B129" s="17"/>
-      <c r="C129" t="s" s="18">
+    <row r="129" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="165"/>
+      <c r="B129" s="155"/>
+      <c r="C129" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="13">
         <v>48255</v>
       </c>
       <c r="E129" s="4"/>
@@ -4868,13 +4912,13 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" ht="13.55" customHeight="1">
-      <c r="A130" s="97"/>
-      <c r="B130" s="17"/>
-      <c r="C130" t="s" s="18">
+    <row r="130" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="165"/>
+      <c r="B130" s="155"/>
+      <c r="C130" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="13">
         <v>49379</v>
       </c>
       <c r="E130" s="4"/>
@@ -4883,13 +4927,13 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" ht="13.55" customHeight="1">
-      <c r="A131" s="97"/>
-      <c r="B131" s="17"/>
-      <c r="C131" t="s" s="98">
+    <row r="131" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="165"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D131" s="80">
+      <c r="D131" s="62">
         <v>46697</v>
       </c>
       <c r="E131" s="4"/>
@@ -4898,13 +4942,13 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" ht="13.55" customHeight="1">
-      <c r="A132" s="97"/>
-      <c r="B132" s="72"/>
-      <c r="C132" t="s" s="29">
+    <row r="132" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="165"/>
+      <c r="B132" s="156"/>
+      <c r="C132" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D132" s="30">
+      <c r="D132" s="21">
         <v>46008</v>
       </c>
       <c r="E132" s="4"/>
@@ -4913,13 +4957,13 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" ht="13.55" customHeight="1">
-      <c r="A133" s="97"/>
-      <c r="B133" s="72"/>
-      <c r="C133" t="s" s="29">
+    <row r="133" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="165"/>
+      <c r="B133" s="156"/>
+      <c r="C133" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D133" s="30">
+      <c r="D133" s="21">
         <v>45986</v>
       </c>
       <c r="E133" s="4"/>
@@ -4928,13 +4972,13 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" ht="15" customHeight="1">
-      <c r="A134" s="97"/>
-      <c r="B134" s="11"/>
-      <c r="C134" t="s" s="99">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="165"/>
+      <c r="B134" s="158"/>
+      <c r="C134" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D134" s="100">
+      <c r="D134" s="80">
         <v>45676</v>
       </c>
       <c r="E134" s="4"/>
@@ -4943,15 +4987,15 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
     </row>
-    <row r="135" ht="14.05" customHeight="1">
-      <c r="A135" s="97"/>
-      <c r="B135" t="s" s="14">
+    <row r="135" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="165"/>
+      <c r="B135" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="C135" t="s" s="15">
+      <c r="C135" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D135" s="47">
+      <c r="D135" s="35">
         <v>47119</v>
       </c>
       <c r="E135" s="4"/>
@@ -4960,13 +5004,13 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" ht="13.55" customHeight="1">
-      <c r="A136" s="97"/>
-      <c r="B136" s="17"/>
-      <c r="C136" t="s" s="18">
+    <row r="136" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="165"/>
+      <c r="B136" s="155"/>
+      <c r="C136" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D136" t="s" s="21">
+      <c r="D136" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="4"/>
@@ -4975,13 +5019,13 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" ht="13.55" customHeight="1">
-      <c r="A137" s="97"/>
-      <c r="B137" s="17"/>
-      <c r="C137" t="s" s="18">
+    <row r="137" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="165"/>
+      <c r="B137" s="155"/>
+      <c r="C137" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D137" t="s" s="21">
+      <c r="D137" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="4"/>
@@ -4990,13 +5034,13 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" ht="13.55" customHeight="1">
-      <c r="A138" s="97"/>
-      <c r="B138" s="17"/>
-      <c r="C138" t="s" s="18">
+    <row r="138" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="165"/>
+      <c r="B138" s="155"/>
+      <c r="C138" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D138" s="19">
+      <c r="D138" s="13">
         <v>46549</v>
       </c>
       <c r="E138" s="4"/>
@@ -5005,13 +5049,13 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" ht="13.55" customHeight="1">
-      <c r="A139" s="97"/>
-      <c r="B139" s="17"/>
-      <c r="C139" t="s" s="101">
+    <row r="139" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="165"/>
+      <c r="B139" s="155"/>
+      <c r="C139" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D139" s="19">
+      <c r="D139" s="13">
         <v>47483</v>
       </c>
       <c r="E139" s="4"/>
@@ -5020,13 +5064,13 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" ht="13.55" customHeight="1">
-      <c r="A140" s="97"/>
-      <c r="B140" s="17"/>
-      <c r="C140" t="s" s="18">
+    <row r="140" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="165"/>
+      <c r="B140" s="155"/>
+      <c r="C140" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="19">
+      <c r="D140" s="13">
         <v>46967</v>
       </c>
       <c r="E140" s="4"/>
@@ -5035,13 +5079,13 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" ht="13.55" customHeight="1">
-      <c r="A141" s="97"/>
-      <c r="B141" s="17"/>
-      <c r="C141" t="s" s="18">
+    <row r="141" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="165"/>
+      <c r="B141" s="155"/>
+      <c r="C141" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D141" s="19">
+      <c r="D141" s="13">
         <v>51387</v>
       </c>
       <c r="E141" s="4"/>
@@ -5050,13 +5094,13 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" ht="13.55" customHeight="1">
-      <c r="A142" s="97"/>
-      <c r="B142" s="17"/>
-      <c r="C142" t="s" s="18">
+    <row r="142" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="165"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="13">
         <v>50424</v>
       </c>
       <c r="E142" s="4"/>
@@ -5065,13 +5109,13 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" ht="13.55" customHeight="1">
-      <c r="A143" s="97"/>
-      <c r="B143" s="17"/>
-      <c r="C143" t="s" s="18">
+    <row r="143" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="165"/>
+      <c r="B143" s="155"/>
+      <c r="C143" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D143" s="19">
+      <c r="D143" s="13">
         <v>48162</v>
       </c>
       <c r="E143" s="4"/>
@@ -5080,13 +5124,13 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" ht="13.55" customHeight="1">
-      <c r="A144" s="97"/>
-      <c r="B144" s="17"/>
-      <c r="C144" t="s" s="18">
+    <row r="144" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="165"/>
+      <c r="B144" s="155"/>
+      <c r="C144" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="13">
         <v>53342</v>
       </c>
       <c r="E144" s="4"/>
@@ -5095,13 +5139,13 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" ht="13.55" customHeight="1">
-      <c r="A145" s="97"/>
-      <c r="B145" s="17"/>
-      <c r="C145" t="s" s="18">
+    <row r="145" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="165"/>
+      <c r="B145" s="155"/>
+      <c r="C145" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D145" s="19">
+      <c r="D145" s="13">
         <v>48162</v>
       </c>
       <c r="E145" s="4"/>
@@ -5110,13 +5154,13 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
     </row>
-    <row r="146" ht="13.55" customHeight="1">
-      <c r="A146" s="97"/>
-      <c r="B146" s="17"/>
-      <c r="C146" t="s" s="18">
+    <row r="146" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="165"/>
+      <c r="B146" s="155"/>
+      <c r="C146" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D146" s="13">
         <v>50420</v>
       </c>
       <c r="E146" s="4"/>
@@ -5125,13 +5169,13 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" ht="13.55" customHeight="1">
-      <c r="A147" s="97"/>
-      <c r="B147" s="17"/>
-      <c r="C147" t="s" s="18">
+    <row r="147" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="165"/>
+      <c r="B147" s="155"/>
+      <c r="C147" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D147" s="19">
+      <c r="D147" s="13">
         <v>48162</v>
       </c>
       <c r="E147" s="4"/>
@@ -5140,13 +5184,13 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" ht="13.55" customHeight="1">
-      <c r="A148" s="97"/>
-      <c r="B148" s="17"/>
-      <c r="C148" t="s" s="18">
+    <row r="148" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="165"/>
+      <c r="B148" s="155"/>
+      <c r="C148" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="13">
         <v>50420</v>
       </c>
       <c r="E148" s="4"/>
@@ -5155,13 +5199,13 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" ht="13.55" customHeight="1">
-      <c r="A149" s="97"/>
-      <c r="B149" s="17"/>
-      <c r="C149" t="s" s="18">
+    <row r="149" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="165"/>
+      <c r="B149" s="155"/>
+      <c r="C149" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D149" s="19">
+      <c r="D149" s="13">
         <v>46467</v>
       </c>
       <c r="E149" s="4"/>
@@ -5170,13 +5214,13 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
     </row>
-    <row r="150" ht="13.55" customHeight="1">
-      <c r="A150" s="97"/>
-      <c r="B150" s="17"/>
-      <c r="C150" t="s" s="18">
+    <row r="150" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="165"/>
+      <c r="B150" s="155"/>
+      <c r="C150" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D150" s="13">
         <v>47824</v>
       </c>
       <c r="E150" s="4"/>
@@ -5185,13 +5229,13 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
     </row>
-    <row r="151" ht="13.55" customHeight="1">
-      <c r="A151" s="97"/>
-      <c r="B151" s="17"/>
-      <c r="C151" t="s" s="18">
+    <row r="151" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="165"/>
+      <c r="B151" s="155"/>
+      <c r="C151" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D151" s="19">
+      <c r="D151" s="13">
         <v>47195</v>
       </c>
       <c r="E151" s="4"/>
@@ -5200,13 +5244,13 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" ht="13.55" customHeight="1">
-      <c r="A152" s="97"/>
-      <c r="B152" s="17"/>
-      <c r="C152" t="s" s="18">
+    <row r="152" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="165"/>
+      <c r="B152" s="155"/>
+      <c r="C152" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="13">
         <v>46780</v>
       </c>
       <c r="E152" s="4"/>
@@ -5215,13 +5259,13 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
     </row>
-    <row r="153" ht="13.55" customHeight="1">
-      <c r="A153" s="97"/>
-      <c r="B153" s="17"/>
-      <c r="C153" t="s" s="18">
+    <row r="153" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="165"/>
+      <c r="B153" s="155"/>
+      <c r="C153" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D153" s="19">
+      <c r="D153" s="13">
         <v>49124</v>
       </c>
       <c r="E153" s="4"/>
@@ -5230,13 +5274,13 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" ht="13.55" customHeight="1">
-      <c r="A154" s="97"/>
-      <c r="B154" s="17"/>
-      <c r="C154" t="s" s="18">
+    <row r="154" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="165"/>
+      <c r="B154" s="155"/>
+      <c r="C154" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D154" s="19">
+      <c r="D154" s="13">
         <v>52289</v>
       </c>
       <c r="E154" s="4"/>
@@ -5245,13 +5289,13 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
     </row>
-    <row r="155" ht="13.55" customHeight="1">
-      <c r="A155" s="97"/>
-      <c r="B155" s="17"/>
-      <c r="C155" t="s" s="18">
+    <row r="155" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="165"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D155" s="19">
+      <c r="D155" s="13">
         <v>52289</v>
       </c>
       <c r="E155" s="4"/>
@@ -5260,13 +5304,13 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" ht="13.55" customHeight="1">
-      <c r="A156" s="97"/>
-      <c r="B156" s="17"/>
-      <c r="C156" t="s" s="18">
+    <row r="156" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="165"/>
+      <c r="B156" s="155"/>
+      <c r="C156" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D156" s="19">
+      <c r="D156" s="13">
         <v>53068</v>
       </c>
       <c r="E156" s="4"/>
@@ -5275,13 +5319,13 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
     </row>
-    <row r="157" ht="13.55" customHeight="1">
-      <c r="A157" s="97"/>
-      <c r="B157" s="17"/>
-      <c r="C157" t="s" s="18">
+    <row r="157" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="165"/>
+      <c r="B157" s="155"/>
+      <c r="C157" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D157" s="19">
+      <c r="D157" s="13">
         <v>49483</v>
       </c>
       <c r="E157" s="4"/>
@@ -5290,13 +5334,13 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
     </row>
-    <row r="158" ht="13.55" customHeight="1">
-      <c r="A158" s="97"/>
-      <c r="B158" s="17"/>
-      <c r="C158" t="s" s="98">
+    <row r="158" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="165"/>
+      <c r="B158" s="155"/>
+      <c r="C158" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D158" s="80">
+      <c r="D158" s="62">
         <v>49756</v>
       </c>
       <c r="E158" s="4"/>
@@ -5305,13 +5349,13 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
     </row>
-    <row r="159" ht="13.55" customHeight="1">
-      <c r="A159" s="97"/>
-      <c r="B159" s="72"/>
-      <c r="C159" t="s" s="29">
+    <row r="159" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="165"/>
+      <c r="B159" s="156"/>
+      <c r="C159" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D159" s="30">
+      <c r="D159" s="21">
         <v>45676</v>
       </c>
       <c r="E159" s="4"/>
@@ -5320,13 +5364,13 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
     </row>
-    <row r="160" ht="13.55" customHeight="1">
-      <c r="A160" s="97"/>
-      <c r="B160" s="17"/>
-      <c r="C160" t="s" s="32">
+    <row r="160" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="165"/>
+      <c r="B160" s="155"/>
+      <c r="C160" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D160" s="33">
+      <c r="D160" s="23">
         <v>46442</v>
       </c>
       <c r="E160" s="4"/>
@@ -5335,13 +5379,13 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
     </row>
-    <row r="161" ht="13.55" customHeight="1">
-      <c r="A161" s="97"/>
-      <c r="B161" s="17"/>
-      <c r="C161" t="s" s="18">
+    <row r="161" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="165"/>
+      <c r="B161" s="155"/>
+      <c r="C161" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D161" s="19">
+      <c r="D161" s="13">
         <v>49379</v>
       </c>
       <c r="E161" s="4"/>
@@ -5350,13 +5394,13 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
     </row>
-    <row r="162" ht="13.55" customHeight="1">
-      <c r="A162" s="97"/>
-      <c r="B162" s="17"/>
-      <c r="C162" t="s" s="18">
+    <row r="162" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="165"/>
+      <c r="B162" s="155"/>
+      <c r="C162" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D162" s="19">
+      <c r="D162" s="13">
         <v>48476</v>
       </c>
       <c r="E162" s="4"/>
@@ -5365,13 +5409,13 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
     </row>
-    <row r="163" ht="13.55" customHeight="1">
-      <c r="A163" s="97"/>
-      <c r="B163" s="17"/>
-      <c r="C163" t="s" s="18">
+    <row r="163" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="165"/>
+      <c r="B163" s="155"/>
+      <c r="C163" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D163" s="19">
+      <c r="D163" s="13">
         <v>56886</v>
       </c>
       <c r="E163" s="4"/>
@@ -5380,13 +5424,13 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" ht="13.55" customHeight="1">
-      <c r="A164" s="97"/>
-      <c r="B164" s="17"/>
-      <c r="C164" t="s" s="18">
+    <row r="164" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="165"/>
+      <c r="B164" s="155"/>
+      <c r="C164" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D164" s="19">
+      <c r="D164" s="13">
         <v>46292</v>
       </c>
       <c r="E164" s="4"/>
@@ -5395,13 +5439,13 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" ht="13.55" customHeight="1">
-      <c r="A165" s="97"/>
-      <c r="B165" s="17"/>
-      <c r="C165" t="s" s="18">
+    <row r="165" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="165"/>
+      <c r="B165" s="155"/>
+      <c r="C165" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D165" t="s" s="21">
+      <c r="D165" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E165" s="4"/>
@@ -5410,13 +5454,13 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" ht="13.55" customHeight="1">
-      <c r="A166" s="97"/>
-      <c r="B166" s="17"/>
-      <c r="C166" t="s" s="18">
+    <row r="166" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="165"/>
+      <c r="B166" s="155"/>
+      <c r="C166" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D166" s="19">
+      <c r="D166" s="13">
         <v>50269</v>
       </c>
       <c r="E166" s="4"/>
@@ -5425,13 +5469,13 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" ht="13.55" customHeight="1">
-      <c r="A167" s="97"/>
-      <c r="B167" s="17"/>
-      <c r="C167" t="s" s="18">
+    <row r="167" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="165"/>
+      <c r="B167" s="155"/>
+      <c r="C167" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="19">
+      <c r="D167" s="13">
         <v>48288</v>
       </c>
       <c r="E167" s="4"/>
@@ -5440,13 +5484,13 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" ht="13.55" customHeight="1">
-      <c r="A168" s="97"/>
-      <c r="B168" s="17"/>
-      <c r="C168" t="s" s="18">
+    <row r="168" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="165"/>
+      <c r="B168" s="155"/>
+      <c r="C168" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D168" s="19">
+      <c r="D168" s="13">
         <v>49873</v>
       </c>
       <c r="E168" s="4"/>
@@ -5455,13 +5499,13 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" ht="13.55" customHeight="1">
-      <c r="A169" s="97"/>
-      <c r="B169" s="17"/>
-      <c r="C169" t="s" s="18">
+    <row r="169" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="165"/>
+      <c r="B169" s="155"/>
+      <c r="C169" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D169" s="19">
+      <c r="D169" s="13">
         <v>48291</v>
       </c>
       <c r="E169" s="4"/>
@@ -5470,13 +5514,13 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" ht="13.55" customHeight="1">
-      <c r="A170" s="97"/>
-      <c r="B170" s="17"/>
-      <c r="C170" t="s" s="18">
+    <row r="170" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="165"/>
+      <c r="B170" s="155"/>
+      <c r="C170" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D170" s="19">
+      <c r="D170" s="13">
         <v>50424</v>
       </c>
       <c r="E170" s="4"/>
@@ -5485,13 +5529,13 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" ht="13.55" customHeight="1">
-      <c r="A171" s="97"/>
-      <c r="B171" s="17"/>
-      <c r="C171" t="s" s="18">
+    <row r="171" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="165"/>
+      <c r="B171" s="155"/>
+      <c r="C171" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="19">
+      <c r="D171" s="13">
         <v>49873</v>
       </c>
       <c r="E171" s="4"/>
@@ -5500,13 +5544,13 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" ht="13.55" customHeight="1">
-      <c r="A172" s="97"/>
-      <c r="B172" s="17"/>
-      <c r="C172" t="s" s="18">
+    <row r="172" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="165"/>
+      <c r="B172" s="155"/>
+      <c r="C172" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D172" s="19">
+      <c r="D172" s="13">
         <v>50376</v>
       </c>
       <c r="E172" s="4"/>
@@ -5515,13 +5559,13 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" ht="13.55" customHeight="1">
-      <c r="A173" s="97"/>
-      <c r="B173" s="17"/>
-      <c r="C173" t="s" s="18">
+    <row r="173" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="165"/>
+      <c r="B173" s="155"/>
+      <c r="C173" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D173" s="19">
+      <c r="D173" s="13">
         <v>48302</v>
       </c>
       <c r="E173" s="4"/>
@@ -5530,13 +5574,13 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="A174" s="97"/>
-      <c r="B174" s="22"/>
-      <c r="C174" t="s" s="23">
+    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="165"/>
+      <c r="B174" s="149"/>
+      <c r="C174" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D174" s="24">
+      <c r="D174" s="17">
         <v>46112</v>
       </c>
       <c r="E174" s="4"/>
@@ -5545,15 +5589,15 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" ht="14.05" customHeight="1">
-      <c r="A175" s="97"/>
-      <c r="B175" t="s" s="14">
+    <row r="175" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="165"/>
+      <c r="B175" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="C175" t="s" s="83">
+      <c r="C175" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D175" t="s" s="16">
+      <c r="D175" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E175" s="4"/>
@@ -5562,13 +5606,13 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" ht="13.55" customHeight="1">
-      <c r="A176" s="97"/>
-      <c r="B176" s="17"/>
-      <c r="C176" t="s" s="44">
+    <row r="176" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="165"/>
+      <c r="B176" s="155"/>
+      <c r="C176" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D176" s="19">
+      <c r="D176" s="13">
         <v>47666</v>
       </c>
       <c r="E176" s="4"/>
@@ -5577,13 +5621,13 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" ht="13.55" customHeight="1">
-      <c r="A177" s="97"/>
-      <c r="B177" s="17"/>
-      <c r="C177" t="s" s="44">
+    <row r="177" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="165"/>
+      <c r="B177" s="155"/>
+      <c r="C177" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D177" s="19">
+      <c r="D177" s="13">
         <v>47048</v>
       </c>
       <c r="E177" s="4"/>
@@ -5592,13 +5636,13 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" ht="13.55" customHeight="1">
-      <c r="A178" s="97"/>
-      <c r="B178" s="17"/>
-      <c r="C178" t="s" s="79">
+    <row r="178" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="165"/>
+      <c r="B178" s="155"/>
+      <c r="C178" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D178" s="80">
+      <c r="D178" s="62">
         <v>48292</v>
       </c>
       <c r="E178" s="4"/>
@@ -5607,13 +5651,13 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
     </row>
-    <row r="179" ht="13.55" customHeight="1">
-      <c r="A179" s="97"/>
-      <c r="B179" s="72"/>
-      <c r="C179" t="s" s="81">
+    <row r="179" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="165"/>
+      <c r="B179" s="156"/>
+      <c r="C179" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D179" s="30">
+      <c r="D179" s="21">
         <v>45751</v>
       </c>
       <c r="E179" s="4"/>
@@ -5622,13 +5666,13 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
     </row>
-    <row r="180" ht="13.55" customHeight="1">
-      <c r="A180" s="97"/>
-      <c r="B180" s="17"/>
-      <c r="C180" t="s" s="43">
+    <row r="180" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="165"/>
+      <c r="B180" s="155"/>
+      <c r="C180" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D180" s="33">
+      <c r="D180" s="23">
         <v>49379</v>
       </c>
       <c r="E180" s="4"/>
@@ -5637,13 +5681,13 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
     </row>
-    <row r="181" ht="13.55" customHeight="1">
-      <c r="A181" s="97"/>
-      <c r="B181" s="17"/>
-      <c r="C181" t="s" s="44">
+    <row r="181" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="165"/>
+      <c r="B181" s="155"/>
+      <c r="C181" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D181" s="19">
+      <c r="D181" s="13">
         <v>46697</v>
       </c>
       <c r="E181" s="4"/>
@@ -5652,13 +5696,13 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" ht="13.55" customHeight="1">
-      <c r="A182" s="97"/>
-      <c r="B182" s="17"/>
-      <c r="C182" t="s" s="44">
+    <row r="182" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="165"/>
+      <c r="B182" s="155"/>
+      <c r="C182" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D182" s="19">
+      <c r="D182" s="13">
         <v>46693</v>
       </c>
       <c r="E182" s="4"/>
@@ -5667,13 +5711,13 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" ht="13.55" customHeight="1">
-      <c r="A183" s="97"/>
-      <c r="B183" s="17"/>
-      <c r="C183" t="s" s="44">
+    <row r="183" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="165"/>
+      <c r="B183" s="155"/>
+      <c r="C183" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D183" s="19">
+      <c r="D183" s="13">
         <v>51136</v>
       </c>
       <c r="E183" s="4"/>
@@ -5682,13 +5726,13 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
     </row>
-    <row r="184" ht="13.55" customHeight="1">
-      <c r="A184" s="97"/>
-      <c r="B184" s="17"/>
-      <c r="C184" t="s" s="44">
+    <row r="184" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="165"/>
+      <c r="B184" s="155"/>
+      <c r="C184" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D184" t="s" s="21">
+      <c r="D184" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E184" s="4"/>
@@ -5697,13 +5741,13 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
     </row>
-    <row r="185" ht="15" customHeight="1">
-      <c r="A185" s="97"/>
-      <c r="B185" s="22"/>
-      <c r="C185" t="s" s="45">
+    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="165"/>
+      <c r="B185" s="149"/>
+      <c r="C185" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D185" s="24">
+      <c r="D185" s="17">
         <v>46697</v>
       </c>
       <c r="E185" s="4"/>
@@ -5712,15 +5756,15 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
     </row>
-    <row r="186" ht="14.05" customHeight="1">
-      <c r="A186" s="97"/>
-      <c r="B186" t="s" s="14">
+    <row r="186" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="165"/>
+      <c r="B186" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="C186" t="s" s="83">
+      <c r="C186" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="D186" t="s" s="16">
+      <c r="D186" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E186" s="4"/>
@@ -5729,13 +5773,13 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" ht="15" customHeight="1">
-      <c r="A187" s="97"/>
-      <c r="B187" s="22"/>
-      <c r="C187" t="s" s="45">
+    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="165"/>
+      <c r="B187" s="149"/>
+      <c r="C187" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D187" s="24">
+      <c r="D187" s="17">
         <v>46112</v>
       </c>
       <c r="E187" s="4"/>
@@ -5744,15 +5788,15 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
     </row>
-    <row r="188" ht="14.05" customHeight="1">
-      <c r="A188" s="97"/>
-      <c r="B188" t="s" s="14">
+    <row r="188" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="165"/>
+      <c r="B188" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="C188" t="s" s="83">
+      <c r="C188" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="D188" s="47">
+      <c r="D188" s="35">
         <v>46493</v>
       </c>
       <c r="E188" s="4"/>
@@ -5761,13 +5805,13 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
     </row>
-    <row r="189" ht="15" customHeight="1">
-      <c r="A189" s="97"/>
-      <c r="B189" s="22"/>
-      <c r="C189" t="s" s="45">
+    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="165"/>
+      <c r="B189" s="149"/>
+      <c r="C189" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D189" s="24">
+      <c r="D189" s="17">
         <v>46840</v>
       </c>
       <c r="E189" s="4"/>
@@ -5776,15 +5820,15 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
     </row>
-    <row r="190" ht="14.05" customHeight="1">
-      <c r="A190" s="97"/>
-      <c r="B190" t="s" s="14">
+    <row r="190" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="165"/>
+      <c r="B190" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="C190" t="s" s="83">
+      <c r="C190" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D190" s="47">
+      <c r="D190" s="35">
         <v>47119</v>
       </c>
       <c r="E190" s="4"/>
@@ -5793,13 +5837,13 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
     </row>
-    <row r="191" ht="13.55" customHeight="1">
-      <c r="A191" s="97"/>
-      <c r="B191" s="17"/>
-      <c r="C191" t="s" s="44">
+    <row r="191" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="165"/>
+      <c r="B191" s="155"/>
+      <c r="C191" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D191" t="s" s="21">
+      <c r="D191" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E191" s="4"/>
@@ -5808,13 +5852,13 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
     </row>
-    <row r="192" ht="13.55" customHeight="1">
-      <c r="A192" s="97"/>
-      <c r="B192" s="17"/>
-      <c r="C192" t="s" s="44">
+    <row r="192" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="165"/>
+      <c r="B192" s="155"/>
+      <c r="C192" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="D192" s="19">
+      <c r="D192" s="13">
         <v>46549</v>
       </c>
       <c r="E192" s="4"/>
@@ -5823,13 +5867,13 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
     </row>
-    <row r="193" ht="13.55" customHeight="1">
-      <c r="A193" s="97"/>
-      <c r="B193" s="17"/>
-      <c r="C193" t="s" s="44">
+    <row r="193" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="165"/>
+      <c r="B193" s="155"/>
+      <c r="C193" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D193" s="19">
+      <c r="D193" s="13">
         <v>47483</v>
       </c>
       <c r="E193" s="4"/>
@@ -5838,13 +5882,13 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
     </row>
-    <row r="194" ht="13.55" customHeight="1">
-      <c r="A194" s="97"/>
-      <c r="B194" s="17"/>
-      <c r="C194" t="s" s="44">
+    <row r="194" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="165"/>
+      <c r="B194" s="155"/>
+      <c r="C194" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="19">
+      <c r="D194" s="13">
         <v>46967</v>
       </c>
       <c r="E194" s="4"/>
@@ -5853,13 +5897,13 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
     </row>
-    <row r="195" ht="13.55" customHeight="1">
-      <c r="A195" s="97"/>
-      <c r="B195" s="17"/>
-      <c r="C195" t="s" s="44">
+    <row r="195" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="165"/>
+      <c r="B195" s="155"/>
+      <c r="C195" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D195" s="19">
+      <c r="D195" s="13">
         <v>50424</v>
       </c>
       <c r="E195" s="4"/>
@@ -5868,13 +5912,13 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
     </row>
-    <row r="196" ht="13.55" customHeight="1">
-      <c r="A196" s="97"/>
-      <c r="B196" s="17"/>
-      <c r="C196" t="s" s="44">
+    <row r="196" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="165"/>
+      <c r="B196" s="155"/>
+      <c r="C196" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D196" s="19">
+      <c r="D196" s="13">
         <v>48162</v>
       </c>
       <c r="E196" s="4"/>
@@ -5883,13 +5927,13 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
     </row>
-    <row r="197" ht="13.55" customHeight="1">
-      <c r="A197" s="97"/>
-      <c r="B197" s="17"/>
-      <c r="C197" t="s" s="44">
+    <row r="197" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="165"/>
+      <c r="B197" s="155"/>
+      <c r="C197" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D197" s="19">
+      <c r="D197" s="13">
         <v>53342</v>
       </c>
       <c r="E197" s="4"/>
@@ -5898,13 +5942,13 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
     </row>
-    <row r="198" ht="13.55" customHeight="1">
-      <c r="A198" s="97"/>
-      <c r="B198" s="17"/>
-      <c r="C198" t="s" s="44">
+    <row r="198" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="165"/>
+      <c r="B198" s="155"/>
+      <c r="C198" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D198" s="19">
+      <c r="D198" s="13">
         <v>48162</v>
       </c>
       <c r="E198" s="4"/>
@@ -5913,13 +5957,13 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
     </row>
-    <row r="199" ht="13.55" customHeight="1">
-      <c r="A199" s="97"/>
-      <c r="B199" s="17"/>
-      <c r="C199" t="s" s="44">
+    <row r="199" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="165"/>
+      <c r="B199" s="155"/>
+      <c r="C199" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D199" s="19">
+      <c r="D199" s="13">
         <v>50420</v>
       </c>
       <c r="E199" s="4"/>
@@ -5928,13 +5972,13 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
     </row>
-    <row r="200" ht="13.55" customHeight="1">
-      <c r="A200" s="97"/>
-      <c r="B200" s="17"/>
-      <c r="C200" t="s" s="44">
+    <row r="200" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="165"/>
+      <c r="B200" s="155"/>
+      <c r="C200" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D200" s="19">
+      <c r="D200" s="13">
         <v>48162</v>
       </c>
       <c r="E200" s="4"/>
@@ -5943,13 +5987,13 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
     </row>
-    <row r="201" ht="13.55" customHeight="1">
-      <c r="A201" s="97"/>
-      <c r="B201" s="17"/>
-      <c r="C201" t="s" s="44">
+    <row r="201" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="165"/>
+      <c r="B201" s="155"/>
+      <c r="C201" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D201" s="19">
+      <c r="D201" s="13">
         <v>50420</v>
       </c>
       <c r="E201" s="4"/>
@@ -5958,13 +6002,13 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
     </row>
-    <row r="202" ht="13.55" customHeight="1">
-      <c r="A202" s="97"/>
-      <c r="B202" s="17"/>
-      <c r="C202" t="s" s="44">
+    <row r="202" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="165"/>
+      <c r="B202" s="155"/>
+      <c r="C202" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D202" s="19">
+      <c r="D202" s="13">
         <v>47824</v>
       </c>
       <c r="E202" s="4"/>
@@ -5973,13 +6017,13 @@
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
     </row>
-    <row r="203" ht="13.55" customHeight="1">
-      <c r="A203" s="97"/>
-      <c r="B203" s="17"/>
-      <c r="C203" t="s" s="44">
+    <row r="203" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="165"/>
+      <c r="B203" s="155"/>
+      <c r="C203" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D203" s="19">
+      <c r="D203" s="13">
         <v>47195</v>
       </c>
       <c r="E203" s="4"/>
@@ -5988,13 +6032,13 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
     </row>
-    <row r="204" ht="13.55" customHeight="1">
-      <c r="A204" s="97"/>
-      <c r="B204" s="17"/>
-      <c r="C204" t="s" s="44">
+    <row r="204" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="165"/>
+      <c r="B204" s="155"/>
+      <c r="C204" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D204" s="19">
+      <c r="D204" s="13">
         <v>46780</v>
       </c>
       <c r="E204" s="4"/>
@@ -6003,13 +6047,13 @@
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
     </row>
-    <row r="205" ht="13.55" customHeight="1">
-      <c r="A205" s="97"/>
-      <c r="B205" s="17"/>
-      <c r="C205" t="s" s="44">
+    <row r="205" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="165"/>
+      <c r="B205" s="155"/>
+      <c r="C205" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D205" s="19">
+      <c r="D205" s="13">
         <v>49124</v>
       </c>
       <c r="E205" s="4"/>
@@ -6018,13 +6062,13 @@
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
     </row>
-    <row r="206" ht="13.55" customHeight="1">
-      <c r="A206" s="97"/>
-      <c r="B206" s="17"/>
-      <c r="C206" t="s" s="44">
+    <row r="206" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="165"/>
+      <c r="B206" s="155"/>
+      <c r="C206" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D206" s="19">
+      <c r="D206" s="13">
         <v>53068</v>
       </c>
       <c r="E206" s="4"/>
@@ -6033,13 +6077,13 @@
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
     </row>
-    <row r="207" ht="13.55" customHeight="1">
-      <c r="A207" s="97"/>
-      <c r="B207" s="17"/>
-      <c r="C207" t="s" s="44">
+    <row r="207" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="165"/>
+      <c r="B207" s="155"/>
+      <c r="C207" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D207" s="19">
+      <c r="D207" s="13">
         <v>49873</v>
       </c>
       <c r="E207" s="4"/>
@@ -6048,13 +6092,13 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
     </row>
-    <row r="208" ht="13.55" customHeight="1">
-      <c r="A208" s="97"/>
-      <c r="B208" s="17"/>
-      <c r="C208" t="s" s="44">
+    <row r="208" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="165"/>
+      <c r="B208" s="155"/>
+      <c r="C208" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D208" s="19">
+      <c r="D208" s="13">
         <v>50424</v>
       </c>
       <c r="E208" s="4"/>
@@ -6063,13 +6107,13 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
     </row>
-    <row r="209" ht="13.55" customHeight="1">
-      <c r="A209" s="97"/>
-      <c r="B209" s="17"/>
-      <c r="C209" t="s" s="44">
+    <row r="209" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="165"/>
+      <c r="B209" s="155"/>
+      <c r="C209" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D209" s="19">
+      <c r="D209" s="13">
         <v>49873</v>
       </c>
       <c r="E209" s="4"/>
@@ -6078,13 +6122,13 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
     </row>
-    <row r="210" ht="15" customHeight="1">
-      <c r="A210" s="97"/>
-      <c r="B210" s="22"/>
-      <c r="C210" t="s" s="45">
+    <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="165"/>
+      <c r="B210" s="149"/>
+      <c r="C210" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D210" s="24">
+      <c r="D210" s="17">
         <v>50376</v>
       </c>
       <c r="E210" s="4"/>
@@ -6093,15 +6137,15 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
     </row>
-    <row r="211" ht="14.05" customHeight="1">
-      <c r="A211" s="97"/>
-      <c r="B211" t="s" s="14">
+    <row r="211" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="165"/>
+      <c r="B211" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C211" t="s" s="83">
+      <c r="C211" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D211" s="47">
+      <c r="D211" s="35">
         <v>50918</v>
       </c>
       <c r="E211" s="4"/>
@@ -6110,13 +6154,13 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
     </row>
-    <row r="212" ht="15" customHeight="1">
-      <c r="A212" s="97"/>
-      <c r="B212" s="22"/>
-      <c r="C212" t="s" s="45">
+    <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="165"/>
+      <c r="B212" s="149"/>
+      <c r="C212" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D212" s="24">
+      <c r="D212" s="17">
         <v>52289</v>
       </c>
       <c r="E212" s="4"/>
@@ -6125,15 +6169,15 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
     </row>
-    <row r="213" ht="14.05" customHeight="1">
-      <c r="A213" s="97"/>
-      <c r="B213" t="s" s="14">
+    <row r="213" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="165"/>
+      <c r="B213" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="C213" t="s" s="83">
+      <c r="C213" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D213" s="47">
+      <c r="D213" s="35">
         <v>52179</v>
       </c>
       <c r="E213" s="4"/>
@@ -6142,13 +6186,13 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
     </row>
-    <row r="214" ht="15" customHeight="1">
-      <c r="A214" s="97"/>
-      <c r="B214" s="22"/>
-      <c r="C214" t="s" s="45">
+    <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="165"/>
+      <c r="B214" s="149"/>
+      <c r="C214" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D214" s="24">
+      <c r="D214" s="17">
         <v>49477</v>
       </c>
       <c r="E214" s="4"/>
@@ -6157,15 +6201,15 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
     </row>
-    <row r="215" ht="15" customHeight="1">
-      <c r="A215" s="97"/>
-      <c r="B215" t="s" s="88">
+    <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="165"/>
+      <c r="B215" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C215" t="s" s="91">
+      <c r="C215" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D215" t="s" s="90">
+      <c r="D215" s="72" t="s">
         <v>85</v>
       </c>
       <c r="E215" s="4"/>
@@ -6174,15 +6218,15 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
     </row>
-    <row r="216" ht="14.05" customHeight="1">
-      <c r="A216" s="97"/>
-      <c r="B216" t="s" s="14">
+    <row r="216" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="165"/>
+      <c r="B216" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="C216" t="s" s="83">
+      <c r="C216" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D216" s="47">
+      <c r="D216" s="35">
         <v>80996</v>
       </c>
       <c r="E216" s="4"/>
@@ -6191,13 +6235,13 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
     </row>
-    <row r="217" ht="15" customHeight="1">
-      <c r="A217" s="97"/>
-      <c r="B217" s="22"/>
-      <c r="C217" t="s" s="45">
+    <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="165"/>
+      <c r="B217" s="149"/>
+      <c r="C217" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D217" s="24">
+      <c r="D217" s="17">
         <v>80996</v>
       </c>
       <c r="E217" s="4"/>
@@ -6206,15 +6250,15 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
     </row>
-    <row r="218" ht="15" customHeight="1">
-      <c r="A218" s="102"/>
-      <c r="B218" t="s" s="88">
+    <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="166"/>
+      <c r="B218" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C218" t="s" s="91">
+      <c r="C218" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D218" s="92">
+      <c r="D218" s="74">
         <v>51573</v>
       </c>
       <c r="E218" s="4"/>
@@ -6223,50 +6267,50 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
     </row>
-    <row r="219" ht="14.05" customHeight="1">
-      <c r="A219" s="51"/>
-      <c r="B219" s="93"/>
-      <c r="C219" s="94"/>
-      <c r="D219" s="95"/>
+    <row r="219" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="38"/>
+      <c r="B219" s="75"/>
+      <c r="C219" s="76"/>
+      <c r="D219" s="77"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
     </row>
-    <row r="220" ht="13.55" customHeight="1">
+    <row r="220" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
-      <c r="D220" s="53"/>
+      <c r="D220" s="40"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
     </row>
-    <row r="221" ht="15" customHeight="1">
-      <c r="A221" s="103"/>
-      <c r="B221" s="104"/>
-      <c r="C221" s="104"/>
-      <c r="D221" s="56"/>
+    <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="82"/>
+      <c r="B221" s="83"/>
+      <c r="C221" s="83"/>
+      <c r="D221" s="43"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
     </row>
-    <row r="222" ht="15" customHeight="1">
-      <c r="A222" t="s" s="3">
+    <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D222" t="s" s="3">
+      <c r="D222" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E222" s="4"/>
@@ -6275,17 +6319,17 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
     </row>
-    <row r="223" ht="20.7" customHeight="1">
-      <c r="A223" t="s" s="105">
+    <row r="223" spans="1:9" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="B223" t="s" s="106">
+      <c r="B223" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="C223" t="s" s="84">
+      <c r="C223" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="D223" t="s" s="16">
+      <c r="D223" s="11" t="s">
         <v>126</v>
       </c>
       <c r="E223" s="4"/>
@@ -6294,11 +6338,11 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
     </row>
-    <row r="224" ht="22.5" customHeight="1">
-      <c r="A224" s="107"/>
-      <c r="B224" s="104"/>
-      <c r="C224" s="108"/>
-      <c r="D224" s="24">
+    <row r="224" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="153"/>
+      <c r="B224" s="151"/>
+      <c r="C224" s="173"/>
+      <c r="D224" s="17">
         <v>49396</v>
       </c>
       <c r="E224" s="4"/>
@@ -6307,15 +6351,15 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
     </row>
-    <row r="225" ht="14.7" customHeight="1">
-      <c r="A225" s="109"/>
-      <c r="B225" t="s" s="106">
+    <row r="225" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="154"/>
+      <c r="B225" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="C225" t="s" s="84">
+      <c r="C225" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D225" s="47">
+      <c r="D225" s="35">
         <v>49379</v>
       </c>
       <c r="E225" s="4"/>
@@ -6324,13 +6368,13 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
     </row>
-    <row r="226" ht="13.55" customHeight="1">
-      <c r="A226" s="4"/>
-      <c r="B226" s="5"/>
-      <c r="C226" t="s" s="110">
+    <row r="226" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="141"/>
+      <c r="B226" s="174"/>
+      <c r="C226" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D226" s="80">
+      <c r="D226" s="62">
         <v>49396</v>
       </c>
       <c r="E226" s="4"/>
@@ -6339,13 +6383,13 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
     </row>
-    <row r="227" ht="13.55" customHeight="1">
-      <c r="A227" s="4"/>
-      <c r="B227" s="111"/>
-      <c r="C227" t="s" s="112">
+    <row r="227" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="141"/>
+      <c r="B227" s="175"/>
+      <c r="C227" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="D227" s="30">
+      <c r="D227" s="21">
         <v>45676</v>
       </c>
       <c r="E227" s="4"/>
@@ -6354,13 +6398,13 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
     </row>
-    <row r="228" ht="15" customHeight="1">
-      <c r="A228" s="107"/>
-      <c r="B228" s="104"/>
-      <c r="C228" t="s" s="69">
+    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="153"/>
+      <c r="B228" s="151"/>
+      <c r="C228" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D228" s="113">
+      <c r="D228" s="86">
         <v>46128</v>
       </c>
       <c r="E228" s="4"/>
@@ -6369,15 +6413,15 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
     </row>
-    <row r="229" ht="21.45" customHeight="1">
-      <c r="A229" s="109"/>
-      <c r="B229" t="s" s="106">
+    <row r="229" spans="1:9" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="154"/>
+      <c r="B229" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="C229" t="s" s="83">
+      <c r="C229" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="D229" t="s" s="16">
+      <c r="D229" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E229" s="4"/>
@@ -6386,11 +6430,11 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
     </row>
-    <row r="230" ht="26.7" customHeight="1">
-      <c r="A230" s="107"/>
-      <c r="B230" s="104"/>
-      <c r="C230" s="114"/>
-      <c r="D230" s="24">
+    <row r="230" spans="1:9" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="153"/>
+      <c r="B230" s="151"/>
+      <c r="C230" s="171"/>
+      <c r="D230" s="17">
         <v>49396</v>
       </c>
       <c r="E230" s="4"/>
@@ -6399,15 +6443,15 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
     </row>
-    <row r="231" ht="14.7" customHeight="1">
-      <c r="A231" s="109"/>
-      <c r="B231" t="s" s="106">
+    <row r="231" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="154"/>
+      <c r="B231" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="C231" t="s" s="84">
+      <c r="C231" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D231" s="47">
+      <c r="D231" s="35">
         <v>49379</v>
       </c>
       <c r="E231" s="4"/>
@@ -6416,13 +6460,13 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
     </row>
-    <row r="232" ht="13.55" customHeight="1">
-      <c r="A232" s="4"/>
-      <c r="B232" s="5"/>
-      <c r="C232" t="s" s="110">
+    <row r="232" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="141"/>
+      <c r="B232" s="174"/>
+      <c r="C232" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D232" s="80">
+      <c r="D232" s="62">
         <v>49396</v>
       </c>
       <c r="E232" s="4"/>
@@ -6431,13 +6475,13 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
     </row>
-    <row r="233" ht="13.55" customHeight="1">
-      <c r="A233" s="4"/>
-      <c r="B233" s="111"/>
-      <c r="C233" t="s" s="112">
+    <row r="233" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="141"/>
+      <c r="B233" s="175"/>
+      <c r="C233" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="D233" s="30">
+      <c r="D233" s="21">
         <v>45676</v>
       </c>
       <c r="E233" s="4"/>
@@ -6446,13 +6490,13 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
     </row>
-    <row r="234" ht="15" customHeight="1">
-      <c r="A234" s="107"/>
-      <c r="B234" s="104"/>
-      <c r="C234" t="s" s="69">
+    <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="153"/>
+      <c r="B234" s="151"/>
+      <c r="C234" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D234" s="113">
+      <c r="D234" s="86">
         <v>46128</v>
       </c>
       <c r="E234" s="4"/>
@@ -6461,39 +6505,39 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
     </row>
-    <row r="235" ht="14.05" customHeight="1">
-      <c r="A235" s="51"/>
-      <c r="B235" s="51"/>
-      <c r="C235" s="51"/>
-      <c r="D235" s="52"/>
+    <row r="235" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="38"/>
+      <c r="B235" s="38"/>
+      <c r="C235" s="38"/>
+      <c r="D235" s="39"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
     </row>
-    <row r="236" ht="15" customHeight="1">
-      <c r="A236" s="103"/>
-      <c r="B236" s="104"/>
-      <c r="C236" s="104"/>
-      <c r="D236" s="56"/>
+    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="82"/>
+      <c r="B236" s="83"/>
+      <c r="C236" s="83"/>
+      <c r="D236" s="43"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
     </row>
-    <row r="237" ht="15" customHeight="1">
-      <c r="A237" t="s" s="3">
+    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D237" t="s" s="3">
+      <c r="D237" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E237" s="4"/>
@@ -6502,17 +6546,17 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
     </row>
-    <row r="238" ht="14.05" customHeight="1">
-      <c r="A238" t="s" s="115">
+    <row r="238" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="B238" t="s" s="116">
+      <c r="B238" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="C238" t="s" s="15">
+      <c r="C238" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D238" s="47">
+      <c r="D238" s="35">
         <v>47576</v>
       </c>
       <c r="E238" s="4"/>
@@ -6521,13 +6565,13 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
     </row>
-    <row r="239" ht="13.55" customHeight="1">
-      <c r="A239" s="61"/>
-      <c r="B239" s="117"/>
-      <c r="C239" t="s" s="18">
+    <row r="239" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="133"/>
+      <c r="B239" s="88"/>
+      <c r="C239" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D239" s="19">
+      <c r="D239" s="13">
         <v>47651</v>
       </c>
       <c r="E239" s="4"/>
@@ -6536,13 +6580,13 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
     </row>
-    <row r="240" ht="15" customHeight="1">
-      <c r="A240" s="67"/>
-      <c r="B240" t="s" s="118">
+    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="135"/>
+      <c r="B240" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="C240" s="119"/>
-      <c r="D240" s="24">
+      <c r="C240" s="90"/>
+      <c r="D240" s="17">
         <v>47399</v>
       </c>
       <c r="E240" s="4"/>
@@ -6551,15 +6595,15 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
     </row>
-    <row r="241" ht="15" customHeight="1">
-      <c r="A241" s="71"/>
-      <c r="B241" t="s" s="120">
+    <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="136"/>
+      <c r="B241" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="C241" t="s" s="121">
+      <c r="C241" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="D241" s="92">
+      <c r="D241" s="74">
         <v>46608</v>
       </c>
       <c r="E241" s="4"/>
@@ -6568,15 +6612,15 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
     </row>
-    <row r="242" ht="15" customHeight="1">
-      <c r="A242" s="67"/>
-      <c r="B242" t="s" s="122">
+    <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="135"/>
+      <c r="B242" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C242" t="s" s="121">
+      <c r="C242" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="D242" s="92">
+      <c r="D242" s="74">
         <v>47521</v>
       </c>
       <c r="E242" s="4"/>
@@ -6585,30 +6629,30 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
     </row>
-    <row r="243" ht="14.05" customHeight="1">
-      <c r="A243" s="71"/>
-      <c r="B243" t="s" s="116">
+    <row r="243" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="136"/>
+      <c r="B243" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="C243" t="s" s="15">
+      <c r="C243" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D243" s="47"/>
+      <c r="D243" s="35"/>
       <c r="E243" s="4"/>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
     </row>
-    <row r="244" ht="15" customHeight="1">
-      <c r="A244" s="67"/>
-      <c r="B244" t="s" s="118">
+    <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="135"/>
+      <c r="B244" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C244" t="s" s="23">
+      <c r="C244" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D244" s="24">
+      <c r="D244" s="17">
         <v>47725</v>
       </c>
       <c r="E244" s="4"/>
@@ -6617,15 +6661,15 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
     </row>
-    <row r="245" ht="15" customHeight="1">
-      <c r="A245" s="123"/>
-      <c r="B245" t="s" s="122">
+    <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="138"/>
+      <c r="B245" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="C245" t="s" s="121">
+      <c r="C245" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="D245" s="92">
+      <c r="D245" s="74">
         <v>47604</v>
       </c>
       <c r="E245" s="4"/>
@@ -6634,15 +6678,15 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
     </row>
-    <row r="246" ht="15" customHeight="1">
-      <c r="A246" s="123"/>
-      <c r="B246" t="s" s="120">
+    <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="138"/>
+      <c r="B246" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="C246" t="s" s="91">
+      <c r="C246" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="D246" s="47">
+      <c r="D246" s="35">
         <v>46608</v>
       </c>
       <c r="E246" s="4"/>
@@ -6651,15 +6695,15 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
     </row>
-    <row r="247" ht="14.05" customHeight="1">
-      <c r="A247" s="71"/>
-      <c r="B247" t="s" s="116">
+    <row r="247" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="136"/>
+      <c r="B247" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="C247" t="s" s="15">
+      <c r="C247" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D247" s="19">
+      <c r="D247" s="13">
         <v>46061</v>
       </c>
       <c r="E247" s="4"/>
@@ -6668,13 +6712,13 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
     </row>
-    <row r="248" ht="13.55" customHeight="1">
-      <c r="A248" s="61"/>
-      <c r="B248" s="117"/>
-      <c r="C248" t="s" s="18">
+    <row r="248" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="133"/>
+      <c r="B248" s="168"/>
+      <c r="C248" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D248" s="19">
+      <c r="D248" s="13">
         <v>46684</v>
       </c>
       <c r="E248" s="4"/>
@@ -6683,13 +6727,13 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
     </row>
-    <row r="249" ht="15" customHeight="1">
-      <c r="A249" s="67"/>
-      <c r="B249" s="124"/>
-      <c r="C249" t="s" s="23">
+    <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="135"/>
+      <c r="B249" s="169"/>
+      <c r="C249" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D249" s="24">
+      <c r="D249" s="17">
         <v>51283</v>
       </c>
       <c r="E249" s="4"/>
@@ -6698,15 +6742,15 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
     </row>
-    <row r="250" ht="25.95" customHeight="1">
-      <c r="A250" s="71"/>
-      <c r="B250" t="s" s="14">
+    <row r="250" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="136"/>
+      <c r="B250" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="C250" t="s" s="83">
+      <c r="C250" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D250" s="47">
+      <c r="D250" s="35">
         <v>49379</v>
       </c>
       <c r="E250" s="4"/>
@@ -6715,13 +6759,13 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
     </row>
-    <row r="251" ht="13.55" customHeight="1">
-      <c r="A251" s="61"/>
-      <c r="B251" s="4"/>
-      <c r="C251" t="s" s="79">
+    <row r="251" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="133"/>
+      <c r="B251" s="141"/>
+      <c r="C251" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D251" s="80">
+      <c r="D251" s="62">
         <v>46608</v>
       </c>
       <c r="E251" s="4"/>
@@ -6730,13 +6774,13 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
     </row>
-    <row r="252" ht="15" customHeight="1">
-      <c r="A252" s="67"/>
-      <c r="B252" s="125"/>
-      <c r="C252" t="s" s="126">
+    <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="135"/>
+      <c r="B252" s="142"/>
+      <c r="C252" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="D252" s="100">
+      <c r="D252" s="80">
         <v>45941</v>
       </c>
       <c r="E252" s="4"/>
@@ -6745,15 +6789,15 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
     </row>
-    <row r="253" ht="25.5" customHeight="1">
-      <c r="A253" s="123"/>
-      <c r="B253" t="s" s="88">
+    <row r="253" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="138"/>
+      <c r="B253" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C253" t="s" s="127">
+      <c r="C253" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="D253" s="128">
+      <c r="D253" s="96">
         <v>47650</v>
       </c>
       <c r="E253" s="4"/>
@@ -6762,15 +6806,15 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
     </row>
-    <row r="254" ht="14.7" customHeight="1">
-      <c r="A254" s="71"/>
-      <c r="B254" t="s" s="14">
+    <row r="254" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="136"/>
+      <c r="B254" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="C254" t="s" s="83">
+      <c r="C254" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D254" s="47">
+      <c r="D254" s="35">
         <v>49379</v>
       </c>
       <c r="E254" s="4"/>
@@ -6779,13 +6823,13 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
     </row>
-    <row r="255" ht="13.55" customHeight="1">
-      <c r="A255" s="61"/>
-      <c r="B255" s="4"/>
-      <c r="C255" t="s" s="44">
+    <row r="255" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="133"/>
+      <c r="B255" s="141"/>
+      <c r="C255" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D255" s="19">
+      <c r="D255" s="13">
         <v>48162</v>
       </c>
       <c r="E255" s="4"/>
@@ -6794,13 +6838,13 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
     </row>
-    <row r="256" ht="13.55" customHeight="1">
-      <c r="A256" s="61"/>
-      <c r="B256" s="4"/>
-      <c r="C256" t="s" s="79">
+    <row r="256" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="133"/>
+      <c r="B256" s="141"/>
+      <c r="C256" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="D256" t="s" s="129">
+      <c r="D256" s="97" t="s">
         <v>162</v>
       </c>
       <c r="E256" s="4"/>
@@ -6809,13 +6853,13 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
     </row>
-    <row r="257" ht="13.55" customHeight="1">
-      <c r="A257" s="61"/>
-      <c r="B257" s="130"/>
-      <c r="C257" t="s" s="81">
+    <row r="257" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="133"/>
+      <c r="B257" s="143"/>
+      <c r="C257" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="D257" s="30">
+      <c r="D257" s="21">
         <v>45727</v>
       </c>
       <c r="E257" s="4"/>
@@ -6824,13 +6868,13 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
     </row>
-    <row r="258" ht="13.55" customHeight="1">
-      <c r="A258" s="61"/>
-      <c r="B258" s="4"/>
-      <c r="C258" t="s" s="43">
+    <row r="258" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="133"/>
+      <c r="B258" s="141"/>
+      <c r="C258" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D258" s="33">
+      <c r="D258" s="23">
         <v>48292</v>
       </c>
       <c r="E258" s="4"/>
@@ -6839,13 +6883,13 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
     </row>
-    <row r="259" ht="13.55" customHeight="1">
-      <c r="A259" s="61"/>
-      <c r="B259" s="4"/>
-      <c r="C259" t="s" s="44">
+    <row r="259" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="133"/>
+      <c r="B259" s="141"/>
+      <c r="C259" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D259" s="19">
+      <c r="D259" s="13">
         <v>49403</v>
       </c>
       <c r="E259" s="4"/>
@@ -6854,13 +6898,13 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
     </row>
-    <row r="260" ht="13.55" customHeight="1">
-      <c r="A260" s="61"/>
-      <c r="B260" s="4"/>
-      <c r="C260" t="s" s="44">
+    <row r="260" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="133"/>
+      <c r="B260" s="141"/>
+      <c r="C260" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D260" s="19">
+      <c r="D260" s="13">
         <v>49108</v>
       </c>
       <c r="E260" s="4"/>
@@ -6869,13 +6913,13 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
     </row>
-    <row r="261" ht="13.55" customHeight="1">
-      <c r="A261" s="61"/>
-      <c r="B261" s="4"/>
-      <c r="C261" t="s" s="44">
+    <row r="261" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="133"/>
+      <c r="B261" s="141"/>
+      <c r="C261" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D261" s="19">
+      <c r="D261" s="13">
         <v>49396</v>
       </c>
       <c r="E261" s="4"/>
@@ -6884,13 +6928,13 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
     </row>
-    <row r="262" ht="13.55" customHeight="1">
-      <c r="A262" s="61"/>
-      <c r="B262" s="4"/>
-      <c r="C262" t="s" s="79">
+    <row r="262" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="133"/>
+      <c r="B262" s="141"/>
+      <c r="C262" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="D262" t="s" s="129">
+      <c r="D262" s="97" t="s">
         <v>10</v>
       </c>
       <c r="E262" s="4"/>
@@ -6899,13 +6943,13 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
     </row>
-    <row r="263" ht="13.55" customHeight="1">
-      <c r="A263" s="61"/>
-      <c r="B263" s="130"/>
-      <c r="C263" t="s" s="81">
+    <row r="263" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="133"/>
+      <c r="B263" s="143"/>
+      <c r="C263" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D263" s="30">
+      <c r="D263" s="21">
         <v>45782</v>
       </c>
       <c r="E263" s="4"/>
@@ -6914,13 +6958,13 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
     </row>
-    <row r="264" ht="13.55" customHeight="1">
-      <c r="A264" s="61"/>
-      <c r="B264" s="4"/>
-      <c r="C264" t="s" s="131">
+    <row r="264" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="133"/>
+      <c r="B264" s="141"/>
+      <c r="C264" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="D264" s="132">
+      <c r="D264" s="99">
         <v>46608</v>
       </c>
       <c r="E264" s="4"/>
@@ -6929,13 +6973,13 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
     </row>
-    <row r="265" ht="13.55" customHeight="1">
-      <c r="A265" s="61"/>
-      <c r="B265" s="130"/>
-      <c r="C265" t="s" s="81">
+    <row r="265" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="133"/>
+      <c r="B265" s="143"/>
+      <c r="C265" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D265" s="30">
+      <c r="D265" s="21">
         <v>45676</v>
       </c>
       <c r="E265" s="4"/>
@@ -6944,13 +6988,13 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
     </row>
-    <row r="266" ht="13.55" customHeight="1">
-      <c r="A266" s="61"/>
-      <c r="B266" s="130"/>
-      <c r="C266" t="s" s="81">
+    <row r="266" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="133"/>
+      <c r="B266" s="143"/>
+      <c r="C266" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D266" s="30">
+      <c r="D266" s="21">
         <v>45947</v>
       </c>
       <c r="E266" s="4"/>
@@ -6959,13 +7003,13 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
     </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="A267" s="67"/>
-      <c r="B267" s="125"/>
-      <c r="C267" t="s" s="75">
+    <row r="267" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="135"/>
+      <c r="B267" s="142"/>
+      <c r="C267" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="D267" s="100">
+      <c r="D267" s="80">
         <v>46009</v>
       </c>
       <c r="E267" s="4"/>
@@ -6974,61 +7018,61 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
     </row>
-    <row r="268" ht="14.05" customHeight="1">
-      <c r="A268" s="51"/>
-      <c r="B268" s="51"/>
-      <c r="C268" s="51"/>
-      <c r="D268" s="52"/>
+    <row r="268" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="38"/>
+      <c r="B268" s="38"/>
+      <c r="C268" s="38"/>
+      <c r="D268" s="39"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
     </row>
-    <row r="269" ht="13.55" customHeight="1">
+    <row r="269" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
-      <c r="D269" s="53"/>
+      <c r="D269" s="40"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
     </row>
-    <row r="270" ht="21" customHeight="1">
+    <row r="270" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
-      <c r="D270" s="53"/>
+      <c r="D270" s="40"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
     </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="A271" s="103"/>
-      <c r="B271" s="104"/>
-      <c r="C271" s="104"/>
-      <c r="D271" s="56"/>
+    <row r="271" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="82"/>
+      <c r="B271" s="83"/>
+      <c r="C271" s="83"/>
+      <c r="D271" s="43"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
     </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="A272" t="s" s="3">
+    <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D272" t="s" s="3">
+      <c r="D272" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E272" s="4"/>
@@ -7037,18 +7081,18 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
     </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="A273" t="s" s="133">
+    <row r="273" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="B273" t="s" s="134">
+      <c r="B273" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="C273" t="s" s="135">
+      <c r="C273" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="D273" s="136">
-        <v>45653</v>
+      <c r="D273" s="102">
+        <v>46024</v>
       </c>
       <c r="E273" s="4"/>
       <c r="F273" s="5"/>
@@ -7056,13 +7100,13 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
     </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="A274" s="61"/>
-      <c r="B274" s="123"/>
-      <c r="C274" t="s" s="135">
+    <row r="274" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="133"/>
+      <c r="B274" s="138"/>
+      <c r="C274" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="D274" s="136">
+      <c r="D274" s="102">
         <v>45774</v>
       </c>
       <c r="E274" s="4"/>
@@ -7071,13 +7115,13 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
     </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="A275" s="61"/>
-      <c r="B275" s="123"/>
-      <c r="C275" t="s" s="134">
+    <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="133"/>
+      <c r="B275" s="138"/>
+      <c r="C275" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="D275" s="137">
+      <c r="D275" s="103">
         <v>54570</v>
       </c>
       <c r="E275" s="4"/>
@@ -7086,13 +7130,13 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
     </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="A276" s="61"/>
-      <c r="B276" s="123"/>
-      <c r="C276" t="s" s="134">
+    <row r="276" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="133"/>
+      <c r="B276" s="138"/>
+      <c r="C276" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D276" s="137">
+      <c r="D276" s="103">
         <v>48162</v>
       </c>
       <c r="E276" s="4"/>
@@ -7101,13 +7145,13 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
     </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="A277" s="61"/>
-      <c r="B277" s="123"/>
-      <c r="C277" t="s" s="134">
+    <row r="277" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="133"/>
+      <c r="B277" s="138"/>
+      <c r="C277" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="D277" s="137">
+      <c r="D277" s="103">
         <v>50420</v>
       </c>
       <c r="E277" s="4"/>
@@ -7116,13 +7160,13 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
     </row>
-    <row r="278" ht="14.05" customHeight="1">
-      <c r="A278" s="61"/>
-      <c r="B278" s="71"/>
-      <c r="C278" t="s" s="138">
+    <row r="278" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="133"/>
+      <c r="B278" s="136"/>
+      <c r="C278" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="D278" s="139">
+      <c r="D278" s="105">
         <v>47825</v>
       </c>
       <c r="E278" s="4"/>
@@ -7131,13 +7175,13 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
     </row>
-    <row r="279" ht="13.55" customHeight="1">
-      <c r="A279" s="61"/>
-      <c r="B279" s="61"/>
-      <c r="C279" t="s" s="140">
+    <row r="279" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="133"/>
+      <c r="B279" s="133"/>
+      <c r="C279" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="D279" s="141">
+      <c r="D279" s="107">
         <v>46055</v>
       </c>
       <c r="E279" s="4"/>
@@ -7146,13 +7190,13 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
     </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="A280" s="61"/>
-      <c r="B280" s="67"/>
-      <c r="C280" t="s" s="142">
+    <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="133"/>
+      <c r="B280" s="135"/>
+      <c r="C280" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="D280" s="143">
+      <c r="D280" s="109">
         <v>45890</v>
       </c>
       <c r="E280" s="4"/>
@@ -7161,13 +7205,13 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
     </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="A281" s="61"/>
-      <c r="B281" s="123"/>
-      <c r="C281" t="s" s="135">
+    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="133"/>
+      <c r="B281" s="138"/>
+      <c r="C281" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="D281" s="136">
+      <c r="D281" s="102">
         <v>45782</v>
       </c>
       <c r="E281" s="4"/>
@@ -7176,13 +7220,13 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
     </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="A282" s="61"/>
-      <c r="B282" s="123"/>
-      <c r="C282" t="s" s="134">
+    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="133"/>
+      <c r="B282" s="138"/>
+      <c r="C282" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="D282" s="137">
+      <c r="D282" s="103">
         <v>54570</v>
       </c>
       <c r="E282" s="4"/>
@@ -7191,13 +7235,13 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
     </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="A283" s="61"/>
-      <c r="B283" s="123"/>
-      <c r="C283" t="s" s="134">
+    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="133"/>
+      <c r="B283" s="138"/>
+      <c r="C283" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="D283" s="137">
+      <c r="D283" s="103">
         <v>47825</v>
       </c>
       <c r="E283" s="4"/>
@@ -7206,13 +7250,13 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
     </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="A284" s="61"/>
-      <c r="B284" s="123"/>
-      <c r="C284" t="s" s="134">
+    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="133"/>
+      <c r="B284" s="138"/>
+      <c r="C284" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="D284" s="137">
+      <c r="D284" s="103">
         <v>46697</v>
       </c>
       <c r="E284" s="4"/>
@@ -7221,13 +7265,13 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
     </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="A285" s="61"/>
-      <c r="B285" s="123"/>
-      <c r="C285" t="s" s="134">
+    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="133"/>
+      <c r="B285" s="138"/>
+      <c r="C285" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="D285" s="137">
+      <c r="D285" s="103">
         <v>54480</v>
       </c>
       <c r="E285" s="4"/>
@@ -7236,13 +7280,13 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
     </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="A286" s="61"/>
-      <c r="B286" s="123"/>
-      <c r="C286" t="s" s="134">
+    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="133"/>
+      <c r="B286" s="138"/>
+      <c r="C286" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="D286" s="137">
+      <c r="D286" s="103">
         <v>46694</v>
       </c>
       <c r="E286" s="4"/>
@@ -7251,13 +7295,13 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
     </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="A287" s="61"/>
-      <c r="B287" s="123"/>
-      <c r="C287" t="s" s="134">
+    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="133"/>
+      <c r="B287" s="138"/>
+      <c r="C287" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="D287" s="137">
+      <c r="D287" s="103">
         <v>55158</v>
       </c>
       <c r="E287" s="4"/>
@@ -7266,13 +7310,13 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
     </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="A288" s="61"/>
-      <c r="B288" s="123"/>
-      <c r="C288" t="s" s="134">
+    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="133"/>
+      <c r="B288" s="138"/>
+      <c r="C288" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="D288" s="137">
+      <c r="D288" s="103">
         <v>46697</v>
       </c>
       <c r="E288" s="4"/>
@@ -7281,13 +7325,13 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
     </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="A289" s="61"/>
-      <c r="B289" s="123"/>
-      <c r="C289" t="s" s="134">
+    <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="133"/>
+      <c r="B289" s="138"/>
+      <c r="C289" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="137">
+      <c r="D289" s="103">
         <v>46693</v>
       </c>
       <c r="E289" s="4"/>
@@ -7296,13 +7340,13 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
     </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="A290" s="61"/>
-      <c r="B290" s="123"/>
-      <c r="C290" t="s" s="134">
+    <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="133"/>
+      <c r="B290" s="138"/>
+      <c r="C290" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="D290" s="137">
+      <c r="D290" s="103">
         <v>55158</v>
       </c>
       <c r="E290" s="4"/>
@@ -7311,13 +7355,13 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
     </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="A291" s="61"/>
-      <c r="B291" s="123"/>
-      <c r="C291" t="s" s="134">
+    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="133"/>
+      <c r="B291" s="138"/>
+      <c r="C291" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="D291" s="137">
+      <c r="D291" s="103">
         <v>46697</v>
       </c>
       <c r="E291" s="4"/>
@@ -7326,13 +7370,13 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
     </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="A292" s="67"/>
-      <c r="B292" s="123"/>
-      <c r="C292" t="s" s="134">
+    <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="135"/>
+      <c r="B292" s="138"/>
+      <c r="C292" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="D292" s="137">
+      <c r="D292" s="103">
         <v>46693</v>
       </c>
       <c r="E292" s="4"/>
@@ -7341,15 +7385,15 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
     </row>
-    <row r="293" ht="14.7" customHeight="1">
-      <c r="A293" s="71"/>
-      <c r="B293" t="s" s="133">
+    <row r="293" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="136"/>
+      <c r="B293" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="C293" t="s" s="144">
+      <c r="C293" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="D293" t="s" s="145">
+      <c r="D293" s="111" t="s">
         <v>10</v>
       </c>
       <c r="E293" s="4"/>
@@ -7358,11 +7402,11 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
     </row>
-    <row r="294" ht="13.55" customHeight="1">
-      <c r="A294" s="61"/>
-      <c r="B294" s="61"/>
-      <c r="C294" s="146"/>
-      <c r="D294" s="141">
+    <row r="294" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="133"/>
+      <c r="B294" s="133"/>
+      <c r="C294" s="112"/>
+      <c r="D294" s="107">
         <v>49004</v>
       </c>
       <c r="E294" s="4"/>
@@ -7371,13 +7415,13 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
     </row>
-    <row r="295" ht="13.55" customHeight="1">
-      <c r="A295" s="61"/>
-      <c r="B295" s="61"/>
-      <c r="C295" t="s" s="147">
+    <row r="295" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="133"/>
+      <c r="B295" s="133"/>
+      <c r="C295" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D295" s="148">
+      <c r="D295" s="114">
         <v>45890</v>
       </c>
       <c r="E295" s="4"/>
@@ -7386,11 +7430,11 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
     </row>
-    <row r="296" ht="13.55" customHeight="1">
-      <c r="A296" s="61"/>
-      <c r="B296" s="61"/>
-      <c r="C296" s="149"/>
-      <c r="D296" s="150">
+    <row r="296" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="133"/>
+      <c r="B296" s="133"/>
+      <c r="C296" s="115"/>
+      <c r="D296" s="116">
         <v>48872</v>
       </c>
       <c r="E296" s="4"/>
@@ -7399,11 +7443,11 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
     </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="A297" s="61"/>
-      <c r="B297" s="67"/>
-      <c r="C297" s="151"/>
-      <c r="D297" s="152">
+    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="133"/>
+      <c r="B297" s="135"/>
+      <c r="C297" s="117"/>
+      <c r="D297" s="118">
         <v>52890</v>
       </c>
       <c r="E297" s="4"/>
@@ -7412,15 +7456,15 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
     </row>
-    <row r="298" ht="14.7" customHeight="1">
-      <c r="A298" s="61"/>
-      <c r="B298" t="s" s="133">
+    <row r="298" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="133"/>
+      <c r="B298" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="C298" t="s" s="153">
+      <c r="C298" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="D298" s="139">
+      <c r="D298" s="105">
         <v>54570</v>
       </c>
       <c r="E298" s="4"/>
@@ -7429,13 +7473,13 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
     </row>
-    <row r="299" ht="13.55" customHeight="1">
-      <c r="A299" s="61"/>
-      <c r="B299" s="61"/>
-      <c r="C299" t="s" s="154">
+    <row r="299" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="133"/>
+      <c r="B299" s="133"/>
+      <c r="C299" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="D299" s="155">
+      <c r="D299" s="121">
         <v>50420</v>
       </c>
       <c r="E299" s="4"/>
@@ -7444,13 +7488,13 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
     </row>
-    <row r="300" ht="13.55" customHeight="1">
-      <c r="A300" s="61"/>
-      <c r="B300" s="61"/>
-      <c r="C300" t="s" s="154">
+    <row r="300" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="133"/>
+      <c r="B300" s="133"/>
+      <c r="C300" s="120" t="s">
         <v>191</v>
       </c>
-      <c r="D300" s="155">
+      <c r="D300" s="121">
         <v>48162</v>
       </c>
       <c r="E300" s="4"/>
@@ -7459,13 +7503,13 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
     </row>
-    <row r="301" ht="13.55" customHeight="1">
-      <c r="A301" s="61"/>
-      <c r="B301" s="61"/>
-      <c r="C301" t="s" s="156">
+    <row r="301" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="133"/>
+      <c r="B301" s="133"/>
+      <c r="C301" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="D301" s="141">
+      <c r="D301" s="107">
         <v>54570</v>
       </c>
       <c r="E301" s="4"/>
@@ -7474,13 +7518,13 @@
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
     </row>
-    <row r="302" ht="13.55" customHeight="1">
-      <c r="A302" s="61"/>
-      <c r="B302" s="61"/>
-      <c r="C302" t="s" s="157">
+    <row r="302" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="133"/>
+      <c r="B302" s="133"/>
+      <c r="C302" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="D302" s="148">
+      <c r="D302" s="114">
         <v>45727</v>
       </c>
       <c r="E302" s="4"/>
@@ -7489,13 +7533,13 @@
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
     </row>
-    <row r="303" ht="13.55" customHeight="1">
-      <c r="A303" s="61"/>
-      <c r="B303" s="61"/>
-      <c r="C303" t="s" s="158">
+    <row r="303" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="133"/>
+      <c r="B303" s="133"/>
+      <c r="C303" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="D303" s="150">
+      <c r="D303" s="116">
         <v>48255</v>
       </c>
       <c r="E303" s="4"/>
@@ -7504,13 +7548,13 @@
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
     </row>
-    <row r="304" ht="13.55" customHeight="1">
-      <c r="A304" s="61"/>
-      <c r="B304" s="61"/>
-      <c r="C304" t="s" s="154">
+    <row r="304" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="133"/>
+      <c r="B304" s="133"/>
+      <c r="C304" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="D304" s="155">
+      <c r="D304" s="121">
         <v>49004</v>
       </c>
       <c r="E304" s="4"/>
@@ -7519,13 +7563,13 @@
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
     </row>
-    <row r="305" ht="13.55" customHeight="1">
-      <c r="A305" s="61"/>
-      <c r="B305" s="61"/>
-      <c r="C305" t="s" s="154">
+    <row r="305" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="133"/>
+      <c r="B305" s="133"/>
+      <c r="C305" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="D305" s="155">
+      <c r="D305" s="121">
         <v>46697</v>
       </c>
       <c r="E305" s="4"/>
@@ -7534,13 +7578,13 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
     </row>
-    <row r="306" ht="13.55" customHeight="1">
-      <c r="A306" s="61"/>
-      <c r="B306" s="61"/>
-      <c r="C306" t="s" s="156">
+    <row r="306" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="133"/>
+      <c r="B306" s="133"/>
+      <c r="C306" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="D306" s="141">
+      <c r="D306" s="107">
         <v>46693</v>
       </c>
       <c r="E306" s="4"/>
@@ -7549,13 +7593,13 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
     </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="A307" s="67"/>
-      <c r="B307" s="67"/>
-      <c r="C307" t="s" s="159">
+    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="135"/>
+      <c r="B307" s="135"/>
+      <c r="C307" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="D307" s="143">
+      <c r="D307" s="109">
         <v>45676</v>
       </c>
       <c r="E307" s="4"/>
@@ -7564,50 +7608,50 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
     </row>
-    <row r="308" ht="14.05" customHeight="1">
-      <c r="A308" s="51"/>
-      <c r="B308" s="51"/>
-      <c r="C308" s="51"/>
-      <c r="D308" s="52"/>
+    <row r="308" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="38"/>
+      <c r="B308" s="38"/>
+      <c r="C308" s="38"/>
+      <c r="D308" s="39"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
     </row>
-    <row r="309" ht="13.55" customHeight="1">
+    <row r="309" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
-      <c r="D309" s="53"/>
+      <c r="D309" s="40"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
     </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="A310" s="103"/>
-      <c r="B310" s="104"/>
-      <c r="C310" s="104"/>
-      <c r="D310" s="56"/>
+    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="82"/>
+      <c r="B310" s="83"/>
+      <c r="C310" s="83"/>
+      <c r="D310" s="43"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
     </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="A311" t="s" s="3">
+    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D311" t="s" s="3">
+      <c r="D311" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E311" s="4"/>
@@ -7616,18 +7660,18 @@
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
     </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="A312" t="s" s="133">
+    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="B312" t="s" s="160">
+      <c r="B312" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="C312" t="s" s="135">
+      <c r="C312" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="D312" s="136">
-        <v>45653</v>
+      <c r="D312" s="102">
+        <v>46024</v>
       </c>
       <c r="E312" s="4"/>
       <c r="F312" s="5"/>
@@ -7635,13 +7679,13 @@
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
     </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="A313" s="61"/>
-      <c r="B313" s="123"/>
-      <c r="C313" t="s" s="135">
+    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="133"/>
+      <c r="B313" s="138"/>
+      <c r="C313" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="D313" s="136">
+      <c r="D313" s="102">
         <v>45774</v>
       </c>
       <c r="E313" s="4"/>
@@ -7650,13 +7694,13 @@
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
     </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="A314" s="61"/>
-      <c r="B314" s="123"/>
-      <c r="C314" t="s" s="134">
+    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="133"/>
+      <c r="B314" s="138"/>
+      <c r="C314" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="D314" s="161">
+      <c r="D314" s="126">
         <v>54570</v>
       </c>
       <c r="E314" s="4"/>
@@ -7665,13 +7709,13 @@
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
     </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="A315" s="61"/>
-      <c r="B315" s="123"/>
-      <c r="C315" t="s" s="134">
+    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="133"/>
+      <c r="B315" s="138"/>
+      <c r="C315" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D315" s="161">
+      <c r="D315" s="126">
         <v>48162</v>
       </c>
       <c r="E315" s="4"/>
@@ -7680,13 +7724,13 @@
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
     </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="A316" s="61"/>
-      <c r="B316" s="123"/>
-      <c r="C316" t="s" s="134">
+    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="133"/>
+      <c r="B316" s="138"/>
+      <c r="C316" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D316" s="161">
+      <c r="D316" s="126">
         <v>50420</v>
       </c>
       <c r="E316" s="4"/>
@@ -7695,13 +7739,13 @@
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
-      <c r="A317" s="61"/>
-      <c r="B317" s="71"/>
-      <c r="C317" t="s" s="138">
+    <row r="317" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="133"/>
+      <c r="B317" s="136"/>
+      <c r="C317" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="D317" s="162">
+      <c r="D317" s="127">
         <v>47825</v>
       </c>
       <c r="E317" s="4"/>
@@ -7710,13 +7754,13 @@
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
     </row>
-    <row r="318" ht="13.75" customHeight="1">
-      <c r="A318" s="61"/>
-      <c r="B318" s="61"/>
-      <c r="C318" t="s" s="140">
+    <row r="318" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="133"/>
+      <c r="B318" s="133"/>
+      <c r="C318" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="D318" s="163">
+      <c r="D318" s="128">
         <v>46055</v>
       </c>
       <c r="E318" s="4"/>
@@ -7725,13 +7769,13 @@
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
     </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="A319" s="61"/>
-      <c r="B319" s="67"/>
-      <c r="C319" t="s" s="142">
+    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="133"/>
+      <c r="B319" s="135"/>
+      <c r="C319" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="D319" s="143">
+      <c r="D319" s="109">
         <v>45890</v>
       </c>
       <c r="E319" s="4"/>
@@ -7740,13 +7784,13 @@
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
     </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="A320" s="61"/>
-      <c r="B320" s="123"/>
-      <c r="C320" t="s" s="135">
+    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="133"/>
+      <c r="B320" s="138"/>
+      <c r="C320" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="D320" s="136">
+      <c r="D320" s="102">
         <v>45782</v>
       </c>
       <c r="E320" s="4"/>
@@ -7755,13 +7799,13 @@
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
     </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="A321" s="61"/>
-      <c r="B321" s="123"/>
-      <c r="C321" t="s" s="134">
+    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="133"/>
+      <c r="B321" s="138"/>
+      <c r="C321" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="D321" s="161">
+      <c r="D321" s="126">
         <v>54570</v>
       </c>
       <c r="E321" s="4"/>
@@ -7770,13 +7814,13 @@
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
     </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="A322" s="61"/>
-      <c r="B322" s="123"/>
-      <c r="C322" t="s" s="134">
+    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="133"/>
+      <c r="B322" s="138"/>
+      <c r="C322" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="D322" s="161">
+      <c r="D322" s="126">
         <v>47825</v>
       </c>
       <c r="E322" s="4"/>
@@ -7785,13 +7829,13 @@
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
     </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="A323" s="61"/>
-      <c r="B323" s="123"/>
-      <c r="C323" t="s" s="134">
+    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="133"/>
+      <c r="B323" s="138"/>
+      <c r="C323" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="D323" s="161">
+      <c r="D323" s="126">
         <v>46697</v>
       </c>
       <c r="E323" s="4"/>
@@ -7800,13 +7844,13 @@
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
     </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="A324" s="61"/>
-      <c r="B324" s="123"/>
-      <c r="C324" t="s" s="134">
+    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="133"/>
+      <c r="B324" s="138"/>
+      <c r="C324" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="D324" s="137">
+      <c r="D324" s="103">
         <v>54480</v>
       </c>
       <c r="E324" s="4"/>
@@ -7815,13 +7859,13 @@
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
     </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="A325" s="61"/>
-      <c r="B325" s="123"/>
-      <c r="C325" t="s" s="134">
+    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="133"/>
+      <c r="B325" s="138"/>
+      <c r="C325" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="D325" s="137">
+      <c r="D325" s="103">
         <v>46694</v>
       </c>
       <c r="E325" s="4"/>
@@ -7830,13 +7874,13 @@
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
     </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="A326" s="61"/>
-      <c r="B326" s="123"/>
-      <c r="C326" t="s" s="134">
+    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="133"/>
+      <c r="B326" s="138"/>
+      <c r="C326" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="D326" s="161">
+      <c r="D326" s="126">
         <v>55158</v>
       </c>
       <c r="E326" s="4"/>
@@ -7845,13 +7889,13 @@
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
     </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="A327" s="61"/>
-      <c r="B327" s="123"/>
-      <c r="C327" t="s" s="134">
+    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="133"/>
+      <c r="B327" s="138"/>
+      <c r="C327" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="D327" s="161">
+      <c r="D327" s="126">
         <v>46697</v>
       </c>
       <c r="E327" s="4"/>
@@ -7860,13 +7904,13 @@
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
     </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="A328" s="67"/>
-      <c r="B328" s="123"/>
-      <c r="C328" t="s" s="134">
+    <row r="328" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="135"/>
+      <c r="B328" s="138"/>
+      <c r="C328" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="D328" s="161">
+      <c r="D328" s="126">
         <v>46693</v>
       </c>
       <c r="E328" s="4"/>
@@ -7875,15 +7919,15 @@
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
     </row>
-    <row r="329" ht="14.7" customHeight="1">
-      <c r="A329" s="71"/>
-      <c r="B329" t="s" s="133">
+    <row r="329" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="136"/>
+      <c r="B329" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="C329" t="s" s="153">
+      <c r="C329" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="D329" t="s" s="145">
+      <c r="D329" s="111" t="s">
         <v>10</v>
       </c>
       <c r="E329" s="4"/>
@@ -7892,11 +7936,11 @@
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
     </row>
-    <row r="330" ht="13.75" customHeight="1">
-      <c r="A330" s="61"/>
-      <c r="B330" s="61"/>
-      <c r="C330" s="146"/>
-      <c r="D330" s="163">
+    <row r="330" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="133"/>
+      <c r="B330" s="133"/>
+      <c r="C330" s="112"/>
+      <c r="D330" s="128">
         <v>49004</v>
       </c>
       <c r="E330" s="4"/>
@@ -7905,13 +7949,13 @@
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
     </row>
-    <row r="331" ht="13.55" customHeight="1">
-      <c r="A331" s="61"/>
-      <c r="B331" s="61"/>
-      <c r="C331" t="s" s="147">
+    <row r="331" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="133"/>
+      <c r="B331" s="133"/>
+      <c r="C331" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D331" s="148">
+      <c r="D331" s="114">
         <v>45890</v>
       </c>
       <c r="E331" s="4"/>
@@ -7920,11 +7964,11 @@
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
     </row>
-    <row r="332" ht="13.75" customHeight="1">
-      <c r="A332" s="61"/>
-      <c r="B332" s="61"/>
-      <c r="C332" s="149"/>
-      <c r="D332" s="164">
+    <row r="332" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="133"/>
+      <c r="B332" s="133"/>
+      <c r="C332" s="115"/>
+      <c r="D332" s="129">
         <v>48872</v>
       </c>
       <c r="E332" s="4"/>
@@ -7933,11 +7977,11 @@
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
     </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="A333" s="61"/>
-      <c r="B333" s="61"/>
-      <c r="C333" s="151"/>
-      <c r="D333" s="165">
+    <row r="333" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="133"/>
+      <c r="B333" s="133"/>
+      <c r="C333" s="117"/>
+      <c r="D333" s="130">
         <v>52890</v>
       </c>
       <c r="E333" s="4"/>
@@ -7946,15 +7990,15 @@
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
     </row>
-    <row r="334" ht="14.7" customHeight="1">
-      <c r="A334" s="61"/>
-      <c r="B334" t="s" s="154">
+    <row r="334" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="133"/>
+      <c r="B334" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="C334" t="s" s="153">
+      <c r="C334" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="D334" s="162">
+      <c r="D334" s="127">
         <v>49379</v>
       </c>
       <c r="E334" s="4"/>
@@ -7963,13 +8007,13 @@
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
     </row>
-    <row r="335" ht="13.75" customHeight="1">
-      <c r="A335" s="61"/>
-      <c r="B335" s="61"/>
-      <c r="C335" t="s" s="154">
+    <row r="335" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="133"/>
+      <c r="B335" s="133"/>
+      <c r="C335" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="D335" s="166">
+      <c r="D335" s="131">
         <v>50420</v>
       </c>
       <c r="E335" s="4"/>
@@ -7978,13 +8022,13 @@
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
     </row>
-    <row r="336" ht="13.75" customHeight="1">
-      <c r="A336" s="61"/>
-      <c r="B336" s="61"/>
-      <c r="C336" t="s" s="156">
+    <row r="336" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="133"/>
+      <c r="B336" s="133"/>
+      <c r="C336" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="D336" s="163">
+      <c r="D336" s="128">
         <v>48162</v>
       </c>
       <c r="E336" s="4"/>
@@ -7993,13 +8037,13 @@
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
     </row>
-    <row r="337" ht="13.55" customHeight="1">
-      <c r="A337" s="61"/>
-      <c r="B337" s="61"/>
-      <c r="C337" t="s" s="157">
+    <row r="337" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="133"/>
+      <c r="B337" s="133"/>
+      <c r="C337" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="D337" s="148">
+      <c r="D337" s="114">
         <v>45727</v>
       </c>
       <c r="E337" s="4"/>
@@ -8008,13 +8052,13 @@
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
     </row>
-    <row r="338" ht="13.75" customHeight="1">
-      <c r="A338" s="61"/>
-      <c r="B338" s="61"/>
-      <c r="C338" t="s" s="158">
+    <row r="338" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="133"/>
+      <c r="B338" s="133"/>
+      <c r="C338" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="D338" s="164">
+      <c r="D338" s="129">
         <v>48255</v>
       </c>
       <c r="E338" s="4"/>
@@ -8023,13 +8067,13 @@
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
     </row>
-    <row r="339" ht="13.75" customHeight="1">
-      <c r="A339" s="61"/>
-      <c r="B339" s="61"/>
-      <c r="C339" t="s" s="154">
+    <row r="339" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="133"/>
+      <c r="B339" s="133"/>
+      <c r="C339" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="D339" s="166">
+      <c r="D339" s="131">
         <v>49004</v>
       </c>
       <c r="E339" s="4"/>
@@ -8038,13 +8082,13 @@
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
     </row>
-    <row r="340" ht="13.75" customHeight="1">
-      <c r="A340" s="61"/>
-      <c r="B340" s="61"/>
-      <c r="C340" t="s" s="156">
+    <row r="340" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="133"/>
+      <c r="B340" s="133"/>
+      <c r="C340" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="D340" s="163">
+      <c r="D340" s="128">
         <v>46693</v>
       </c>
       <c r="E340" s="4"/>
@@ -8053,13 +8097,13 @@
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
     </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="A341" s="67"/>
-      <c r="B341" s="67"/>
-      <c r="C341" t="s" s="159">
+    <row r="341" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="135"/>
+      <c r="B341" s="135"/>
+      <c r="C341" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="D341" s="143">
+      <c r="D341" s="109">
         <v>45676</v>
       </c>
       <c r="E341" s="4"/>
@@ -8070,41 +8114,46 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A128:A218"/>
-    <mergeCell ref="B247:B249"/>
     <mergeCell ref="C229:C230"/>
     <mergeCell ref="B211:B212"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="B216:B217"/>
     <mergeCell ref="C223:C224"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="A128:A218"/>
+    <mergeCell ref="B247:B249"/>
     <mergeCell ref="B135:B174"/>
     <mergeCell ref="B175:B185"/>
     <mergeCell ref="B186:B187"/>
     <mergeCell ref="B188:B189"/>
     <mergeCell ref="B190:B210"/>
     <mergeCell ref="B128:B134"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="A2:A48"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="A223:A234"/>
+    <mergeCell ref="B102:B114"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B60:B90"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B4:B25"/>
     <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B114"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="B60:B90"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B32:B44"/>
-    <mergeCell ref="A2:A48"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A223:A234"/>
+    <mergeCell ref="B329:B333"/>
+    <mergeCell ref="B334:B341"/>
+    <mergeCell ref="A312:A341"/>
+    <mergeCell ref="B312:B328"/>
+    <mergeCell ref="A53:A123"/>
     <mergeCell ref="B250:B252"/>
     <mergeCell ref="B254:B267"/>
     <mergeCell ref="A238:A267"/>
@@ -8112,14 +8161,9 @@
     <mergeCell ref="B298:B307"/>
     <mergeCell ref="B273:B292"/>
     <mergeCell ref="A273:A307"/>
-    <mergeCell ref="B329:B333"/>
-    <mergeCell ref="B334:B341"/>
-    <mergeCell ref="A312:A341"/>
-    <mergeCell ref="B312:B328"/>
-    <mergeCell ref="A53:A123"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
